--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5D548-8FFB-4086-917F-97DFF9F4146C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HDB" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>HDB</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,88 +654,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12196500</v>
+        <v>17008600</v>
       </c>
       <c r="E8" s="3">
-        <v>10491500</v>
+        <v>16155700</v>
       </c>
       <c r="F8" s="3">
-        <v>9043700</v>
+        <v>13886100</v>
       </c>
       <c r="G8" s="3">
-        <v>7241400</v>
+        <v>11243400</v>
       </c>
       <c r="H8" s="3">
+        <v>9671600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8337000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6675500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6105200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>5117100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>4013200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,9 +778,18 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +814,18 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +837,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,9 +866,18 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,9 +902,18 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,36 +938,54 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-140000</v>
+        <v>-184800</v>
       </c>
       <c r="E15" s="3">
-        <v>-128400</v>
+        <v>-170600</v>
       </c>
       <c r="F15" s="3">
-        <v>-107500</v>
+        <v>-163300</v>
       </c>
       <c r="G15" s="3">
-        <v>-103000</v>
+        <v>-129000</v>
       </c>
       <c r="H15" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-123200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>-130000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>-114500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -954,62 +994,83 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6936600</v>
+        <v>9951000</v>
       </c>
       <c r="E17" s="3">
-        <v>5953300</v>
+        <v>9811900</v>
       </c>
       <c r="F17" s="3">
-        <v>5127500</v>
+        <v>8084500</v>
       </c>
       <c r="G17" s="3">
-        <v>4072100</v>
+        <v>6394600</v>
       </c>
       <c r="H17" s="3">
+        <v>5488100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4726800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3753900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3572600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>3029200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2298900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5259900</v>
+        <v>7057600</v>
       </c>
       <c r="E18" s="3">
-        <v>4538200</v>
+        <v>6343800</v>
       </c>
       <c r="F18" s="3">
-        <v>3916200</v>
+        <v>5801600</v>
       </c>
       <c r="G18" s="3">
-        <v>3169300</v>
+        <v>4848800</v>
       </c>
       <c r="H18" s="3">
+        <v>4183500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3610200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2921600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2532600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>2087900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>1714300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,62 +1082,83 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1252900</v>
+        <v>-1194700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1357500</v>
+        <v>-1467100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1232600</v>
+        <v>-1269900</v>
       </c>
       <c r="G20" s="3">
-        <v>-942100</v>
+        <v>-1155000</v>
       </c>
       <c r="H20" s="3">
+        <v>-1251400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1136300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-868500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-772100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-757900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-646600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4147000</v>
+        <v>6047600</v>
       </c>
       <c r="E21" s="3">
-        <v>3309200</v>
+        <v>5047300</v>
       </c>
       <c r="F21" s="3">
-        <v>2791200</v>
+        <v>4694900</v>
       </c>
       <c r="G21" s="3">
-        <v>2330300</v>
+        <v>3822900</v>
       </c>
       <c r="H21" s="3">
+        <v>3050500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2573000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2148100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1883800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1460100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1182200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,63 +1183,90 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4007000</v>
+        <v>5862900</v>
       </c>
       <c r="E23" s="3">
-        <v>3180700</v>
+        <v>4876700</v>
       </c>
       <c r="F23" s="3">
-        <v>2683600</v>
+        <v>4531700</v>
       </c>
       <c r="G23" s="3">
-        <v>2227200</v>
+        <v>3693800</v>
       </c>
       <c r="H23" s="3">
+        <v>2932100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2473900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2053100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1760500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1330000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1067700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1421000</v>
+        <v>1517200</v>
       </c>
       <c r="E24" s="3">
-        <v>1145600</v>
+        <v>1406000</v>
       </c>
       <c r="F24" s="3">
-        <v>976600</v>
+        <v>1591500</v>
       </c>
       <c r="G24" s="3">
-        <v>788400</v>
+        <v>1310000</v>
       </c>
       <c r="H24" s="3">
+        <v>1056100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>900300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>726800</v>
+      </c>
+      <c r="K24" s="3">
         <v>611700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>431500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>344600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,63 +1291,90 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2585900</v>
+        <v>4345700</v>
       </c>
       <c r="E26" s="3">
-        <v>2035100</v>
+        <v>3470700</v>
       </c>
       <c r="F26" s="3">
-        <v>1707000</v>
+        <v>2940100</v>
       </c>
       <c r="G26" s="3">
-        <v>1438800</v>
+        <v>2383900</v>
       </c>
       <c r="H26" s="3">
+        <v>1876100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1573600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1326400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1148800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>898500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>723100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2581300</v>
+        <v>4345300</v>
       </c>
       <c r="E27" s="3">
-        <v>2032100</v>
+        <v>3469400</v>
       </c>
       <c r="F27" s="3">
-        <v>1705100</v>
+        <v>2934000</v>
       </c>
       <c r="G27" s="3">
-        <v>1435000</v>
+        <v>2379600</v>
       </c>
       <c r="H27" s="3">
+        <v>1873300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1571800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1322800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1147000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>893900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>719900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1263,9 +1399,18 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1290,9 +1435,18 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1317,9 +1471,18 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1344,63 +1507,90 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1252900</v>
+        <v>1194700</v>
       </c>
       <c r="E32" s="3">
-        <v>1357500</v>
+        <v>1467100</v>
       </c>
       <c r="F32" s="3">
-        <v>1232600</v>
+        <v>1269900</v>
       </c>
       <c r="G32" s="3">
-        <v>942100</v>
+        <v>1155000</v>
       </c>
       <c r="H32" s="3">
+        <v>1251400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1136300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>868500</v>
+      </c>
+      <c r="K32" s="3">
         <v>772100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>757900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>646600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2581300</v>
+        <v>4345300</v>
       </c>
       <c r="E33" s="3">
-        <v>2032100</v>
+        <v>3469400</v>
       </c>
       <c r="F33" s="3">
-        <v>1705100</v>
+        <v>2934000</v>
       </c>
       <c r="G33" s="3">
-        <v>1435000</v>
+        <v>2379600</v>
       </c>
       <c r="H33" s="3">
+        <v>1873300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1571800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1322800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1147000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>893900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>719900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1425,68 +1615,95 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2581300</v>
+        <v>4345300</v>
       </c>
       <c r="E35" s="3">
-        <v>2032100</v>
+        <v>3469400</v>
       </c>
       <c r="F35" s="3">
-        <v>1705100</v>
+        <v>2934000</v>
       </c>
       <c r="G35" s="3">
-        <v>1435000</v>
+        <v>2379600</v>
       </c>
       <c r="H35" s="3">
+        <v>1873300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1571800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1322800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1147000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>893900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>719900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1498,8 +1715,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1511,62 +1731,83 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8302200</v>
+        <v>12406200</v>
       </c>
       <c r="E41" s="3">
-        <v>6228000</v>
+        <v>8157400</v>
       </c>
       <c r="F41" s="3">
-        <v>5461100</v>
+        <v>9795900</v>
       </c>
       <c r="G41" s="3">
-        <v>4932700</v>
+        <v>7653400</v>
       </c>
       <c r="H41" s="3">
+        <v>5741300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5034400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4547200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5362300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>3163000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2719100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9399300</v>
+        <v>3599900</v>
       </c>
       <c r="E42" s="3">
-        <v>723000</v>
+        <v>3332500</v>
       </c>
       <c r="F42" s="3">
-        <v>14700</v>
+        <v>1015900</v>
       </c>
       <c r="G42" s="3">
-        <v>23000</v>
+        <v>8664700</v>
       </c>
       <c r="H42" s="3">
+        <v>666500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K42" s="3">
         <v>828900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>968800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>301800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1591,9 +1832,18 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1618,9 +1868,18 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1645,9 +1904,18 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1672,9 +1940,18 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1699,63 +1976,90 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>563500</v>
+        <v>1568200</v>
       </c>
       <c r="E48" s="3">
-        <v>563500</v>
+        <v>1454100</v>
       </c>
       <c r="F48" s="3">
-        <v>515900</v>
+        <v>575700</v>
       </c>
       <c r="G48" s="3">
-        <v>482300</v>
+        <v>519400</v>
       </c>
       <c r="H48" s="3">
+        <v>519500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>475600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>444600</v>
+      </c>
+      <c r="K48" s="3">
         <v>453600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>419000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>360900</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1083600</v>
+        <v>998900</v>
       </c>
       <c r="E49" s="3">
-        <v>1083600</v>
+        <v>998900</v>
       </c>
       <c r="F49" s="3">
-        <v>1083700</v>
+        <v>998900</v>
       </c>
       <c r="G49" s="3">
-        <v>1083800</v>
+        <v>998900</v>
       </c>
       <c r="H49" s="3">
+        <v>998900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>999000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>999100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1086900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1109200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>1142500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1780,9 +2084,18 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1807,9 +2120,18 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1834,9 +2156,18 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1861,36 +2192,54 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>164371000</v>
+        <v>239671000</v>
       </c>
       <c r="E54" s="3">
-        <v>131109000</v>
+        <v>212772000</v>
       </c>
       <c r="F54" s="3">
-        <v>111873000</v>
+        <v>177023000</v>
       </c>
       <c r="G54" s="3">
-        <v>90505400</v>
+        <v>151526000</v>
       </c>
       <c r="H54" s="3">
+        <v>120863000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>103131000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>83432700</v>
+      </c>
+      <c r="K54" s="3">
         <v>74113400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>63203300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>51638900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1902,8 +2251,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1915,35 +2267,47 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2487500</v>
+        <v>2956500</v>
       </c>
       <c r="E57" s="3">
-        <v>1335500</v>
+        <v>2445600</v>
       </c>
       <c r="F57" s="3">
-        <v>1118700</v>
+        <v>2233900</v>
       </c>
       <c r="G57" s="3">
-        <v>860000</v>
+        <v>2293100</v>
       </c>
       <c r="H57" s="3">
+        <v>1231100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>792800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1327700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>3412900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>4288400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1968,36 +2332,54 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>761200</v>
+        <v>1859900</v>
       </c>
       <c r="E59" s="3">
-        <v>487500</v>
+        <v>1606400</v>
       </c>
       <c r="F59" s="3">
-        <v>393700</v>
+        <v>770700</v>
       </c>
       <c r="G59" s="3">
-        <v>296000</v>
+        <v>701700</v>
       </c>
       <c r="H59" s="3">
+        <v>449400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>362900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>272800</v>
+      </c>
+      <c r="K59" s="3">
         <v>297800</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2022,36 +2404,54 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13489800</v>
+        <v>15659500</v>
       </c>
       <c r="E61" s="3">
-        <v>10569100</v>
+        <v>13683500</v>
       </c>
       <c r="F61" s="3">
-        <v>7552700</v>
+        <v>13923900</v>
       </c>
       <c r="G61" s="3">
-        <v>6621700</v>
+        <v>12435600</v>
       </c>
       <c r="H61" s="3">
+        <v>9743200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>6962400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6104300</v>
+      </c>
+      <c r="K61" s="3">
         <v>5714700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>4268900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>2579200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2076,9 +2476,18 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2103,9 +2512,18 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2130,9 +2548,18 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2157,36 +2584,54 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147393000</v>
+        <v>210883000</v>
       </c>
       <c r="E66" s="3">
-        <v>116272000</v>
+        <v>187537000</v>
       </c>
       <c r="F66" s="3">
-        <v>99302800</v>
+        <v>155261000</v>
       </c>
       <c r="G66" s="3">
-        <v>79656700</v>
+        <v>135875000</v>
       </c>
       <c r="H66" s="3">
+        <v>107186000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>91542600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>73431800</v>
+      </c>
+      <c r="K66" s="3">
         <v>66422000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>56429200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>45926400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,8 +2643,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2224,9 +2672,18 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2251,9 +2708,18 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2278,9 +2744,18 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2305,36 +2780,54 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10067000</v>
+        <v>17765000</v>
       </c>
       <c r="E72" s="3">
-        <v>7984500</v>
+        <v>14254800</v>
       </c>
       <c r="F72" s="3">
-        <v>6369300</v>
+        <v>11671200</v>
       </c>
       <c r="G72" s="3">
-        <v>5016600</v>
+        <v>9280300</v>
       </c>
       <c r="H72" s="3">
+        <v>7360500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5871500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4624500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3860700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>2939200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>2212500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2359,9 +2852,18 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,9 +2888,18 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2413,36 +2924,54 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16978400</v>
+        <v>28787800</v>
       </c>
       <c r="E76" s="3">
-        <v>14836700</v>
+        <v>25234800</v>
       </c>
       <c r="F76" s="3">
-        <v>12570200</v>
+        <v>21762200</v>
       </c>
       <c r="G76" s="3">
-        <v>10848600</v>
+        <v>15651600</v>
       </c>
       <c r="H76" s="3">
+        <v>13677300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>11587900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10000900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7691400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>6774100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>5712500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2467,68 +2996,95 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2581300</v>
+        <v>4345300</v>
       </c>
       <c r="E81" s="3">
-        <v>2032100</v>
+        <v>3469400</v>
       </c>
       <c r="F81" s="3">
-        <v>1705100</v>
+        <v>2934000</v>
       </c>
       <c r="G81" s="3">
-        <v>1435000</v>
+        <v>2379600</v>
       </c>
       <c r="H81" s="3">
+        <v>1873300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1571800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1322800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1147000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>893900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>719900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,35 +3096,47 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>140000</v>
+        <v>184800</v>
       </c>
       <c r="E83" s="3">
-        <v>128400</v>
+        <v>170600</v>
       </c>
       <c r="F83" s="3">
-        <v>107500</v>
+        <v>163300</v>
       </c>
       <c r="G83" s="3">
-        <v>103000</v>
+        <v>129000</v>
       </c>
       <c r="H83" s="3">
+        <v>118400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>99100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K83" s="3">
         <v>123200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>130000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>114500</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2593,9 +3161,18 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2620,9 +3197,18 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2647,9 +3233,18 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2674,9 +3269,18 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2701,36 +3305,54 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1363200</v>
+        <v>12287300</v>
       </c>
       <c r="E89" s="3">
-        <v>5484300</v>
+        <v>2281800</v>
       </c>
       <c r="F89" s="3">
-        <v>2459300</v>
+        <v>2443000</v>
       </c>
       <c r="G89" s="3">
-        <v>1581300</v>
+        <v>1256700</v>
       </c>
       <c r="H89" s="3">
+        <v>5055700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2267100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1457700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1838600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1034100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>542100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2742,35 +3364,47 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-132800</v>
+        <v>-237400</v>
       </c>
       <c r="E91" s="3">
-        <v>-182600</v>
+        <v>-243900</v>
       </c>
       <c r="F91" s="3">
-        <v>-144400</v>
+        <v>-218000</v>
       </c>
       <c r="G91" s="3">
-        <v>-128900</v>
+        <v>-122400</v>
       </c>
       <c r="H91" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-140700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-144500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-114600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2795,9 +3429,18 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2822,36 +3465,54 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29618800</v>
+        <v>-33606900</v>
       </c>
       <c r="E94" s="3">
-        <v>-22820800</v>
+        <v>-28666000</v>
       </c>
       <c r="F94" s="3">
-        <v>-16554400</v>
+        <v>-20488000</v>
       </c>
       <c r="G94" s="3">
-        <v>-16941900</v>
+        <v>-27304200</v>
       </c>
       <c r="H94" s="3">
+        <v>-21037500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-15260700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15618000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11233600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-9904700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-9314000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2863,35 +3524,47 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-498700</v>
+        <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-423400</v>
+        <v>-885700</v>
       </c>
       <c r="F96" s="3">
-        <v>-352400</v>
+        <v>-546700</v>
       </c>
       <c r="G96" s="3">
-        <v>-279100</v>
+        <v>-459800</v>
       </c>
       <c r="H96" s="3">
+        <v>-390300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-324800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-257300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-222300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-170400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-129400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,9 +3589,18 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2943,9 +3625,18 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2970,88 +3661,124 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30322800</v>
+        <v>25571900</v>
       </c>
       <c r="E100" s="3">
-        <v>18132500</v>
+        <v>24604300</v>
       </c>
       <c r="F100" s="3">
-        <v>14574700</v>
+        <v>20228300</v>
       </c>
       <c r="G100" s="3">
-        <v>14878600</v>
+        <v>27953200</v>
       </c>
       <c r="H100" s="3">
+        <v>16715500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>13435700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>13715900</v>
+      </c>
+      <c r="K100" s="3">
         <v>11487600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>9292200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>7264000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6900</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>-29000</v>
+        <v>141400</v>
       </c>
       <c r="F101" s="3">
-        <v>48900</v>
+        <v>-40900</v>
       </c>
       <c r="G101" s="3">
-        <v>52400</v>
+        <v>6400</v>
       </c>
       <c r="H101" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>45100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K101" s="3">
         <v>106700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>22300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>49400</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2074200</v>
+        <v>4248700</v>
       </c>
       <c r="E102" s="3">
-        <v>766900</v>
+        <v>-1638400</v>
       </c>
       <c r="F102" s="3">
-        <v>528500</v>
+        <v>2142400</v>
       </c>
       <c r="G102" s="3">
-        <v>-429600</v>
+        <v>1912100</v>
       </c>
       <c r="H102" s="3">
+        <v>707000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>487200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2199300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>443900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-1458400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17008600</v>
+        <v>16676900</v>
       </c>
       <c r="E8" s="3">
-        <v>16155700</v>
+        <v>15840600</v>
       </c>
       <c r="F8" s="3">
-        <v>13886100</v>
+        <v>13615200</v>
       </c>
       <c r="G8" s="3">
-        <v>11243400</v>
+        <v>11024100</v>
       </c>
       <c r="H8" s="3">
-        <v>9671600</v>
+        <v>9483000</v>
       </c>
       <c r="I8" s="3">
-        <v>8337000</v>
+        <v>8174400</v>
       </c>
       <c r="J8" s="3">
-        <v>6675500</v>
+        <v>6545300</v>
       </c>
       <c r="K8" s="3">
         <v>6105200</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-184800</v>
+        <v>-181200</v>
       </c>
       <c r="E15" s="3">
-        <v>-170600</v>
+        <v>-167300</v>
       </c>
       <c r="F15" s="3">
-        <v>-163300</v>
+        <v>-160100</v>
       </c>
       <c r="G15" s="3">
-        <v>-129000</v>
+        <v>-126500</v>
       </c>
       <c r="H15" s="3">
-        <v>-118400</v>
+        <v>-116100</v>
       </c>
       <c r="I15" s="3">
-        <v>-99100</v>
+        <v>-97200</v>
       </c>
       <c r="J15" s="3">
-        <v>-95000</v>
+        <v>-93100</v>
       </c>
       <c r="K15" s="3">
         <v>-123200</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9951000</v>
+        <v>9756900</v>
       </c>
       <c r="E17" s="3">
-        <v>9811900</v>
+        <v>9620500</v>
       </c>
       <c r="F17" s="3">
-        <v>8084500</v>
+        <v>7926800</v>
       </c>
       <c r="G17" s="3">
-        <v>6394600</v>
+        <v>6269800</v>
       </c>
       <c r="H17" s="3">
-        <v>5488100</v>
+        <v>5381100</v>
       </c>
       <c r="I17" s="3">
-        <v>4726800</v>
+        <v>4634600</v>
       </c>
       <c r="J17" s="3">
-        <v>3753900</v>
+        <v>3680700</v>
       </c>
       <c r="K17" s="3">
         <v>3572600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7057600</v>
+        <v>6920000</v>
       </c>
       <c r="E18" s="3">
-        <v>6343800</v>
+        <v>6220100</v>
       </c>
       <c r="F18" s="3">
-        <v>5801600</v>
+        <v>5688400</v>
       </c>
       <c r="G18" s="3">
-        <v>4848800</v>
+        <v>4754200</v>
       </c>
       <c r="H18" s="3">
-        <v>4183500</v>
+        <v>4101900</v>
       </c>
       <c r="I18" s="3">
-        <v>3610200</v>
+        <v>3539800</v>
       </c>
       <c r="J18" s="3">
-        <v>2921600</v>
+        <v>2864600</v>
       </c>
       <c r="K18" s="3">
         <v>2532600</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1194700</v>
+        <v>-1171400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1467100</v>
+        <v>-1438500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1269900</v>
+        <v>-1245100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1155000</v>
+        <v>-1132500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1251400</v>
+        <v>-1227000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1136300</v>
+        <v>-1114100</v>
       </c>
       <c r="J20" s="3">
-        <v>-868500</v>
+        <v>-851500</v>
       </c>
       <c r="K20" s="3">
         <v>-772100</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6047600</v>
+        <v>5930100</v>
       </c>
       <c r="E21" s="3">
-        <v>5047300</v>
+        <v>4949300</v>
       </c>
       <c r="F21" s="3">
-        <v>4694900</v>
+        <v>4603700</v>
       </c>
       <c r="G21" s="3">
-        <v>3822900</v>
+        <v>3748600</v>
       </c>
       <c r="H21" s="3">
-        <v>3050500</v>
+        <v>2991300</v>
       </c>
       <c r="I21" s="3">
-        <v>2573000</v>
+        <v>2523000</v>
       </c>
       <c r="J21" s="3">
-        <v>2148100</v>
+        <v>2106400</v>
       </c>
       <c r="K21" s="3">
         <v>1883800</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5862900</v>
+        <v>5748500</v>
       </c>
       <c r="E23" s="3">
-        <v>4876700</v>
+        <v>4781600</v>
       </c>
       <c r="F23" s="3">
-        <v>4531700</v>
+        <v>4443300</v>
       </c>
       <c r="G23" s="3">
-        <v>3693800</v>
+        <v>3621800</v>
       </c>
       <c r="H23" s="3">
-        <v>2932100</v>
+        <v>2874900</v>
       </c>
       <c r="I23" s="3">
-        <v>2473900</v>
+        <v>2425600</v>
       </c>
       <c r="J23" s="3">
-        <v>2053100</v>
+        <v>2013100</v>
       </c>
       <c r="K23" s="3">
         <v>1760500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1517200</v>
+        <v>1487600</v>
       </c>
       <c r="E24" s="3">
-        <v>1406000</v>
+        <v>1378600</v>
       </c>
       <c r="F24" s="3">
-        <v>1591500</v>
+        <v>1560500</v>
       </c>
       <c r="G24" s="3">
-        <v>1310000</v>
+        <v>1284400</v>
       </c>
       <c r="H24" s="3">
-        <v>1056100</v>
+        <v>1035500</v>
       </c>
       <c r="I24" s="3">
-        <v>900300</v>
+        <v>882700</v>
       </c>
       <c r="J24" s="3">
-        <v>726800</v>
+        <v>712600</v>
       </c>
       <c r="K24" s="3">
         <v>611700</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4345700</v>
+        <v>4260900</v>
       </c>
       <c r="E26" s="3">
-        <v>3470700</v>
+        <v>3403000</v>
       </c>
       <c r="F26" s="3">
-        <v>2940100</v>
+        <v>2882800</v>
       </c>
       <c r="G26" s="3">
-        <v>2383900</v>
+        <v>2337400</v>
       </c>
       <c r="H26" s="3">
-        <v>1876100</v>
+        <v>1839500</v>
       </c>
       <c r="I26" s="3">
-        <v>1573600</v>
+        <v>1542900</v>
       </c>
       <c r="J26" s="3">
-        <v>1326400</v>
+        <v>1300500</v>
       </c>
       <c r="K26" s="3">
         <v>1148800</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4345300</v>
+        <v>4260500</v>
       </c>
       <c r="E27" s="3">
-        <v>3469400</v>
+        <v>3401700</v>
       </c>
       <c r="F27" s="3">
-        <v>2934000</v>
+        <v>2876800</v>
       </c>
       <c r="G27" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="H27" s="3">
-        <v>1873300</v>
+        <v>1836700</v>
       </c>
       <c r="I27" s="3">
-        <v>1571800</v>
+        <v>1541200</v>
       </c>
       <c r="J27" s="3">
-        <v>1322800</v>
+        <v>1297000</v>
       </c>
       <c r="K27" s="3">
         <v>1147000</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1194700</v>
+        <v>1171400</v>
       </c>
       <c r="E32" s="3">
-        <v>1467100</v>
+        <v>1438500</v>
       </c>
       <c r="F32" s="3">
-        <v>1269900</v>
+        <v>1245100</v>
       </c>
       <c r="G32" s="3">
-        <v>1155000</v>
+        <v>1132500</v>
       </c>
       <c r="H32" s="3">
-        <v>1251400</v>
+        <v>1227000</v>
       </c>
       <c r="I32" s="3">
-        <v>1136300</v>
+        <v>1114100</v>
       </c>
       <c r="J32" s="3">
-        <v>868500</v>
+        <v>851500</v>
       </c>
       <c r="K32" s="3">
         <v>772100</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4345300</v>
+        <v>4260500</v>
       </c>
       <c r="E33" s="3">
-        <v>3469400</v>
+        <v>3401700</v>
       </c>
       <c r="F33" s="3">
-        <v>2934000</v>
+        <v>2876800</v>
       </c>
       <c r="G33" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="H33" s="3">
-        <v>1873300</v>
+        <v>1836700</v>
       </c>
       <c r="I33" s="3">
-        <v>1571800</v>
+        <v>1541200</v>
       </c>
       <c r="J33" s="3">
-        <v>1322800</v>
+        <v>1297000</v>
       </c>
       <c r="K33" s="3">
         <v>1147000</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4345300</v>
+        <v>4260500</v>
       </c>
       <c r="E35" s="3">
-        <v>3469400</v>
+        <v>3401700</v>
       </c>
       <c r="F35" s="3">
-        <v>2934000</v>
+        <v>2876800</v>
       </c>
       <c r="G35" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="H35" s="3">
-        <v>1873300</v>
+        <v>1836700</v>
       </c>
       <c r="I35" s="3">
-        <v>1571800</v>
+        <v>1541200</v>
       </c>
       <c r="J35" s="3">
-        <v>1322800</v>
+        <v>1297000</v>
       </c>
       <c r="K35" s="3">
         <v>1147000</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12406200</v>
+        <v>12164200</v>
       </c>
       <c r="E41" s="3">
-        <v>8157400</v>
+        <v>7998300</v>
       </c>
       <c r="F41" s="3">
-        <v>9795900</v>
+        <v>9604800</v>
       </c>
       <c r="G41" s="3">
-        <v>7653400</v>
+        <v>7504200</v>
       </c>
       <c r="H41" s="3">
-        <v>5741300</v>
+        <v>5629400</v>
       </c>
       <c r="I41" s="3">
-        <v>5034400</v>
+        <v>4936200</v>
       </c>
       <c r="J41" s="3">
-        <v>4547200</v>
+        <v>4458500</v>
       </c>
       <c r="K41" s="3">
         <v>5362300</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3599900</v>
+        <v>3529700</v>
       </c>
       <c r="E42" s="3">
-        <v>3332500</v>
+        <v>3267500</v>
       </c>
       <c r="F42" s="3">
-        <v>1015900</v>
+        <v>996100</v>
       </c>
       <c r="G42" s="3">
-        <v>8664700</v>
+        <v>8495700</v>
       </c>
       <c r="H42" s="3">
-        <v>666500</v>
+        <v>653500</v>
       </c>
       <c r="I42" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="J42" s="3">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="K42" s="3">
         <v>828900</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1568200</v>
+        <v>1537600</v>
       </c>
       <c r="E48" s="3">
-        <v>1454100</v>
+        <v>1425700</v>
       </c>
       <c r="F48" s="3">
-        <v>575700</v>
+        <v>564500</v>
       </c>
       <c r="G48" s="3">
-        <v>519400</v>
+        <v>509300</v>
       </c>
       <c r="H48" s="3">
-        <v>519500</v>
+        <v>509300</v>
       </c>
       <c r="I48" s="3">
-        <v>475600</v>
+        <v>466300</v>
       </c>
       <c r="J48" s="3">
-        <v>444600</v>
+        <v>436000</v>
       </c>
       <c r="K48" s="3">
         <v>453600</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>998900</v>
+        <v>979400</v>
       </c>
       <c r="E49" s="3">
-        <v>998900</v>
+        <v>979400</v>
       </c>
       <c r="F49" s="3">
-        <v>998900</v>
+        <v>979400</v>
       </c>
       <c r="G49" s="3">
-        <v>998900</v>
+        <v>979500</v>
       </c>
       <c r="H49" s="3">
-        <v>998900</v>
+        <v>979500</v>
       </c>
       <c r="I49" s="3">
-        <v>999000</v>
+        <v>979500</v>
       </c>
       <c r="J49" s="3">
-        <v>999100</v>
+        <v>979600</v>
       </c>
       <c r="K49" s="3">
         <v>1086900</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>239671000</v>
+        <v>234996000</v>
       </c>
       <c r="E54" s="3">
-        <v>212772000</v>
+        <v>208622000</v>
       </c>
       <c r="F54" s="3">
-        <v>177023000</v>
+        <v>173571000</v>
       </c>
       <c r="G54" s="3">
-        <v>151526000</v>
+        <v>148571000</v>
       </c>
       <c r="H54" s="3">
-        <v>120863000</v>
+        <v>118505000</v>
       </c>
       <c r="I54" s="3">
-        <v>103131000</v>
+        <v>101119000</v>
       </c>
       <c r="J54" s="3">
-        <v>83432700</v>
+        <v>81805300</v>
       </c>
       <c r="K54" s="3">
         <v>74113400</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2956500</v>
+        <v>2898900</v>
       </c>
       <c r="E57" s="3">
-        <v>2445600</v>
+        <v>2397900</v>
       </c>
       <c r="F57" s="3">
-        <v>2233900</v>
+        <v>2190300</v>
       </c>
       <c r="G57" s="3">
-        <v>2293100</v>
+        <v>2248400</v>
       </c>
       <c r="H57" s="3">
-        <v>1231100</v>
+        <v>1207100</v>
       </c>
       <c r="I57" s="3">
-        <v>1031300</v>
+        <v>1011200</v>
       </c>
       <c r="J57" s="3">
-        <v>792800</v>
+        <v>777300</v>
       </c>
       <c r="K57" s="3">
         <v>1327700</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1859900</v>
+        <v>1823600</v>
       </c>
       <c r="E59" s="3">
-        <v>1606400</v>
+        <v>1575100</v>
       </c>
       <c r="F59" s="3">
-        <v>770700</v>
+        <v>755700</v>
       </c>
       <c r="G59" s="3">
-        <v>701700</v>
+        <v>688100</v>
       </c>
       <c r="H59" s="3">
-        <v>449400</v>
+        <v>440700</v>
       </c>
       <c r="I59" s="3">
-        <v>362900</v>
+        <v>355800</v>
       </c>
       <c r="J59" s="3">
-        <v>272800</v>
+        <v>267500</v>
       </c>
       <c r="K59" s="3">
         <v>297800</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15659500</v>
+        <v>15354100</v>
       </c>
       <c r="E61" s="3">
-        <v>13683500</v>
+        <v>13416600</v>
       </c>
       <c r="F61" s="3">
-        <v>13923900</v>
+        <v>13652300</v>
       </c>
       <c r="G61" s="3">
-        <v>12435600</v>
+        <v>12193100</v>
       </c>
       <c r="H61" s="3">
-        <v>9743200</v>
+        <v>9553100</v>
       </c>
       <c r="I61" s="3">
-        <v>6962400</v>
+        <v>6826600</v>
       </c>
       <c r="J61" s="3">
-        <v>6104300</v>
+        <v>5985200</v>
       </c>
       <c r="K61" s="3">
         <v>5714700</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>210883000</v>
+        <v>206769000</v>
       </c>
       <c r="E66" s="3">
-        <v>187537000</v>
+        <v>183879000</v>
       </c>
       <c r="F66" s="3">
-        <v>155261000</v>
+        <v>152233000</v>
       </c>
       <c r="G66" s="3">
-        <v>135875000</v>
+        <v>133224000</v>
       </c>
       <c r="H66" s="3">
-        <v>107186000</v>
+        <v>105095000</v>
       </c>
       <c r="I66" s="3">
-        <v>91542600</v>
+        <v>89757100</v>
       </c>
       <c r="J66" s="3">
-        <v>73431800</v>
+        <v>71999500</v>
       </c>
       <c r="K66" s="3">
         <v>66422000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17765000</v>
+        <v>17418500</v>
       </c>
       <c r="E72" s="3">
-        <v>14254800</v>
+        <v>13976800</v>
       </c>
       <c r="F72" s="3">
-        <v>11671200</v>
+        <v>11443500</v>
       </c>
       <c r="G72" s="3">
-        <v>9280300</v>
+        <v>9099300</v>
       </c>
       <c r="H72" s="3">
-        <v>7360500</v>
+        <v>7216900</v>
       </c>
       <c r="I72" s="3">
-        <v>5871500</v>
+        <v>5757000</v>
       </c>
       <c r="J72" s="3">
-        <v>4624500</v>
+        <v>4534300</v>
       </c>
       <c r="K72" s="3">
         <v>3860700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28787800</v>
+        <v>28226300</v>
       </c>
       <c r="E76" s="3">
-        <v>25234800</v>
+        <v>24742600</v>
       </c>
       <c r="F76" s="3">
-        <v>21762200</v>
+        <v>21337800</v>
       </c>
       <c r="G76" s="3">
-        <v>15651600</v>
+        <v>15346300</v>
       </c>
       <c r="H76" s="3">
-        <v>13677300</v>
+        <v>13410500</v>
       </c>
       <c r="I76" s="3">
-        <v>11587900</v>
+        <v>11361900</v>
       </c>
       <c r="J76" s="3">
-        <v>10000900</v>
+        <v>9805800</v>
       </c>
       <c r="K76" s="3">
         <v>7691400</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4345300</v>
+        <v>4260500</v>
       </c>
       <c r="E81" s="3">
-        <v>3469400</v>
+        <v>3401700</v>
       </c>
       <c r="F81" s="3">
-        <v>2934000</v>
+        <v>2876800</v>
       </c>
       <c r="G81" s="3">
-        <v>2379600</v>
+        <v>2333200</v>
       </c>
       <c r="H81" s="3">
-        <v>1873300</v>
+        <v>1836700</v>
       </c>
       <c r="I81" s="3">
-        <v>1571800</v>
+        <v>1541200</v>
       </c>
       <c r="J81" s="3">
-        <v>1322800</v>
+        <v>1297000</v>
       </c>
       <c r="K81" s="3">
         <v>1147000</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>184800</v>
+        <v>181200</v>
       </c>
       <c r="E83" s="3">
-        <v>170600</v>
+        <v>167300</v>
       </c>
       <c r="F83" s="3">
-        <v>163300</v>
+        <v>160100</v>
       </c>
       <c r="G83" s="3">
-        <v>129000</v>
+        <v>126500</v>
       </c>
       <c r="H83" s="3">
-        <v>118400</v>
+        <v>116100</v>
       </c>
       <c r="I83" s="3">
-        <v>99100</v>
+        <v>97200</v>
       </c>
       <c r="J83" s="3">
-        <v>95000</v>
+        <v>93100</v>
       </c>
       <c r="K83" s="3">
         <v>123200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12287300</v>
+        <v>12047600</v>
       </c>
       <c r="E89" s="3">
-        <v>2281800</v>
+        <v>2237300</v>
       </c>
       <c r="F89" s="3">
-        <v>2443000</v>
+        <v>2395400</v>
       </c>
       <c r="G89" s="3">
-        <v>1256700</v>
+        <v>1232200</v>
       </c>
       <c r="H89" s="3">
-        <v>5055700</v>
+        <v>4957100</v>
       </c>
       <c r="I89" s="3">
-        <v>2267100</v>
+        <v>2222900</v>
       </c>
       <c r="J89" s="3">
-        <v>1457700</v>
+        <v>1429300</v>
       </c>
       <c r="K89" s="3">
         <v>1838600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-237400</v>
+        <v>-232700</v>
       </c>
       <c r="E91" s="3">
-        <v>-243900</v>
+        <v>-239100</v>
       </c>
       <c r="F91" s="3">
-        <v>-218000</v>
+        <v>-213800</v>
       </c>
       <c r="G91" s="3">
-        <v>-122400</v>
+        <v>-120000</v>
       </c>
       <c r="H91" s="3">
-        <v>-168300</v>
+        <v>-165100</v>
       </c>
       <c r="I91" s="3">
-        <v>-133100</v>
+        <v>-130500</v>
       </c>
       <c r="J91" s="3">
-        <v>-118800</v>
+        <v>-116500</v>
       </c>
       <c r="K91" s="3">
         <v>-140700</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33606900</v>
+        <v>-32951400</v>
       </c>
       <c r="E94" s="3">
-        <v>-28666000</v>
+        <v>-28106900</v>
       </c>
       <c r="F94" s="3">
-        <v>-20488000</v>
+        <v>-20088400</v>
       </c>
       <c r="G94" s="3">
-        <v>-27304200</v>
+        <v>-26771600</v>
       </c>
       <c r="H94" s="3">
-        <v>-21037500</v>
+        <v>-20627100</v>
       </c>
       <c r="I94" s="3">
-        <v>-15260700</v>
+        <v>-14963100</v>
       </c>
       <c r="J94" s="3">
-        <v>-15618000</v>
+        <v>-15313300</v>
       </c>
       <c r="K94" s="3">
         <v>-11233600</v>
@@ -3536,22 +3536,22 @@
         <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-885700</v>
+        <v>-868500</v>
       </c>
       <c r="F96" s="3">
-        <v>-546700</v>
+        <v>-536100</v>
       </c>
       <c r="G96" s="3">
-        <v>-459800</v>
+        <v>-450800</v>
       </c>
       <c r="H96" s="3">
-        <v>-390300</v>
+        <v>-382700</v>
       </c>
       <c r="I96" s="3">
-        <v>-324800</v>
+        <v>-318500</v>
       </c>
       <c r="J96" s="3">
-        <v>-257300</v>
+        <v>-252300</v>
       </c>
       <c r="K96" s="3">
         <v>-222300</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25571900</v>
+        <v>25073100</v>
       </c>
       <c r="E100" s="3">
-        <v>24604300</v>
+        <v>24124400</v>
       </c>
       <c r="F100" s="3">
-        <v>20228300</v>
+        <v>19833700</v>
       </c>
       <c r="G100" s="3">
-        <v>27953200</v>
+        <v>27408000</v>
       </c>
       <c r="H100" s="3">
-        <v>16715500</v>
+        <v>16389500</v>
       </c>
       <c r="I100" s="3">
-        <v>13435700</v>
+        <v>13173700</v>
       </c>
       <c r="J100" s="3">
-        <v>13715900</v>
+        <v>13448300</v>
       </c>
       <c r="K100" s="3">
         <v>11487600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>141400</v>
+        <v>138700</v>
       </c>
       <c r="F101" s="3">
-        <v>-40900</v>
+        <v>-40100</v>
       </c>
       <c r="G101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H101" s="3">
-        <v>-26800</v>
+        <v>-26200</v>
       </c>
       <c r="I101" s="3">
-        <v>45100</v>
+        <v>44200</v>
       </c>
       <c r="J101" s="3">
-        <v>48300</v>
+        <v>47400</v>
       </c>
       <c r="K101" s="3">
         <v>106700</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4248700</v>
+        <v>4165800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1638400</v>
+        <v>-1606500</v>
       </c>
       <c r="F102" s="3">
-        <v>2142400</v>
+        <v>2100600</v>
       </c>
       <c r="G102" s="3">
-        <v>1912100</v>
+        <v>1874800</v>
       </c>
       <c r="H102" s="3">
-        <v>707000</v>
+        <v>693200</v>
       </c>
       <c r="I102" s="3">
-        <v>487200</v>
+        <v>477700</v>
       </c>
       <c r="J102" s="3">
-        <v>-396000</v>
+        <v>-388300</v>
       </c>
       <c r="K102" s="3">
         <v>2199300</v>

--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16676900</v>
+        <v>16485500</v>
       </c>
       <c r="E8" s="3">
-        <v>15840600</v>
+        <v>15658800</v>
       </c>
       <c r="F8" s="3">
-        <v>13615200</v>
+        <v>13459000</v>
       </c>
       <c r="G8" s="3">
-        <v>11024100</v>
+        <v>10897600</v>
       </c>
       <c r="H8" s="3">
-        <v>9483000</v>
+        <v>9374200</v>
       </c>
       <c r="I8" s="3">
-        <v>8174400</v>
+        <v>8080500</v>
       </c>
       <c r="J8" s="3">
-        <v>6545300</v>
+        <v>6470200</v>
       </c>
       <c r="K8" s="3">
         <v>6105200</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-181200</v>
+        <v>-179100</v>
       </c>
       <c r="E15" s="3">
-        <v>-167300</v>
+        <v>-165400</v>
       </c>
       <c r="F15" s="3">
-        <v>-160100</v>
+        <v>-158300</v>
       </c>
       <c r="G15" s="3">
-        <v>-126500</v>
+        <v>-125100</v>
       </c>
       <c r="H15" s="3">
-        <v>-116100</v>
+        <v>-114700</v>
       </c>
       <c r="I15" s="3">
-        <v>-97200</v>
+        <v>-96100</v>
       </c>
       <c r="J15" s="3">
-        <v>-93100</v>
+        <v>-92100</v>
       </c>
       <c r="K15" s="3">
         <v>-123200</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9756900</v>
+        <v>9645000</v>
       </c>
       <c r="E17" s="3">
-        <v>9620500</v>
+        <v>9510100</v>
       </c>
       <c r="F17" s="3">
-        <v>7926800</v>
+        <v>7835800</v>
       </c>
       <c r="G17" s="3">
-        <v>6269800</v>
+        <v>6197900</v>
       </c>
       <c r="H17" s="3">
-        <v>5381100</v>
+        <v>5319300</v>
       </c>
       <c r="I17" s="3">
-        <v>4634600</v>
+        <v>4581400</v>
       </c>
       <c r="J17" s="3">
-        <v>3680700</v>
+        <v>3638400</v>
       </c>
       <c r="K17" s="3">
         <v>3572600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6920000</v>
+        <v>6840500</v>
       </c>
       <c r="E18" s="3">
-        <v>6220100</v>
+        <v>6148700</v>
       </c>
       <c r="F18" s="3">
-        <v>5688400</v>
+        <v>5623100</v>
       </c>
       <c r="G18" s="3">
-        <v>4754200</v>
+        <v>4699700</v>
       </c>
       <c r="H18" s="3">
-        <v>4101900</v>
+        <v>4054900</v>
       </c>
       <c r="I18" s="3">
-        <v>3539800</v>
+        <v>3499100</v>
       </c>
       <c r="J18" s="3">
-        <v>2864600</v>
+        <v>2831800</v>
       </c>
       <c r="K18" s="3">
         <v>2532600</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1171400</v>
+        <v>-1158000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1438500</v>
+        <v>-1422000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1245100</v>
+        <v>-1230900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1132500</v>
+        <v>-1119500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1227000</v>
+        <v>-1212900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1114100</v>
+        <v>-1101300</v>
       </c>
       <c r="J20" s="3">
-        <v>-851500</v>
+        <v>-841800</v>
       </c>
       <c r="K20" s="3">
         <v>-772100</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5930100</v>
+        <v>5861600</v>
       </c>
       <c r="E21" s="3">
-        <v>4949300</v>
+        <v>4892100</v>
       </c>
       <c r="F21" s="3">
-        <v>4603700</v>
+        <v>4550500</v>
       </c>
       <c r="G21" s="3">
-        <v>3748600</v>
+        <v>3705300</v>
       </c>
       <c r="H21" s="3">
-        <v>2991300</v>
+        <v>2956700</v>
       </c>
       <c r="I21" s="3">
-        <v>2523000</v>
+        <v>2493800</v>
       </c>
       <c r="J21" s="3">
-        <v>2106400</v>
+        <v>2082100</v>
       </c>
       <c r="K21" s="3">
         <v>1883800</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5748500</v>
+        <v>5682600</v>
       </c>
       <c r="E23" s="3">
-        <v>4781600</v>
+        <v>4726700</v>
       </c>
       <c r="F23" s="3">
-        <v>4443300</v>
+        <v>4392300</v>
       </c>
       <c r="G23" s="3">
-        <v>3621800</v>
+        <v>3580200</v>
       </c>
       <c r="H23" s="3">
-        <v>2874900</v>
+        <v>2842000</v>
       </c>
       <c r="I23" s="3">
-        <v>2425600</v>
+        <v>2397800</v>
       </c>
       <c r="J23" s="3">
-        <v>2013100</v>
+        <v>1990000</v>
       </c>
       <c r="K23" s="3">
         <v>1760500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1487600</v>
+        <v>1470600</v>
       </c>
       <c r="E24" s="3">
-        <v>1378600</v>
+        <v>1362800</v>
       </c>
       <c r="F24" s="3">
-        <v>1560500</v>
+        <v>1542600</v>
       </c>
       <c r="G24" s="3">
-        <v>1284400</v>
+        <v>1269700</v>
       </c>
       <c r="H24" s="3">
-        <v>1035500</v>
+        <v>1023600</v>
       </c>
       <c r="I24" s="3">
-        <v>882700</v>
+        <v>872600</v>
       </c>
       <c r="J24" s="3">
-        <v>712600</v>
+        <v>704400</v>
       </c>
       <c r="K24" s="3">
         <v>611700</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4260900</v>
+        <v>4212000</v>
       </c>
       <c r="E26" s="3">
-        <v>3403000</v>
+        <v>3363900</v>
       </c>
       <c r="F26" s="3">
-        <v>2882800</v>
+        <v>2849700</v>
       </c>
       <c r="G26" s="3">
-        <v>2337400</v>
+        <v>2310500</v>
       </c>
       <c r="H26" s="3">
-        <v>1839500</v>
+        <v>1818400</v>
       </c>
       <c r="I26" s="3">
-        <v>1542900</v>
+        <v>1525200</v>
       </c>
       <c r="J26" s="3">
-        <v>1300500</v>
+        <v>1285600</v>
       </c>
       <c r="K26" s="3">
         <v>1148800</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4260500</v>
+        <v>4211600</v>
       </c>
       <c r="E27" s="3">
-        <v>3401700</v>
+        <v>3362700</v>
       </c>
       <c r="F27" s="3">
-        <v>2876800</v>
+        <v>2843700</v>
       </c>
       <c r="G27" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="H27" s="3">
-        <v>1836700</v>
+        <v>1815600</v>
       </c>
       <c r="I27" s="3">
-        <v>1541200</v>
+        <v>1523500</v>
       </c>
       <c r="J27" s="3">
-        <v>1297000</v>
+        <v>1282200</v>
       </c>
       <c r="K27" s="3">
         <v>1147000</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1171400</v>
+        <v>1158000</v>
       </c>
       <c r="E32" s="3">
-        <v>1438500</v>
+        <v>1422000</v>
       </c>
       <c r="F32" s="3">
-        <v>1245100</v>
+        <v>1230900</v>
       </c>
       <c r="G32" s="3">
-        <v>1132500</v>
+        <v>1119500</v>
       </c>
       <c r="H32" s="3">
-        <v>1227000</v>
+        <v>1212900</v>
       </c>
       <c r="I32" s="3">
-        <v>1114100</v>
+        <v>1101300</v>
       </c>
       <c r="J32" s="3">
-        <v>851500</v>
+        <v>841800</v>
       </c>
       <c r="K32" s="3">
         <v>772100</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4260500</v>
+        <v>4211600</v>
       </c>
       <c r="E33" s="3">
-        <v>3401700</v>
+        <v>3362700</v>
       </c>
       <c r="F33" s="3">
-        <v>2876800</v>
+        <v>2843700</v>
       </c>
       <c r="G33" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="H33" s="3">
-        <v>1836700</v>
+        <v>1815600</v>
       </c>
       <c r="I33" s="3">
-        <v>1541200</v>
+        <v>1523500</v>
       </c>
       <c r="J33" s="3">
-        <v>1297000</v>
+        <v>1282200</v>
       </c>
       <c r="K33" s="3">
         <v>1147000</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4260500</v>
+        <v>4211600</v>
       </c>
       <c r="E35" s="3">
-        <v>3401700</v>
+        <v>3362700</v>
       </c>
       <c r="F35" s="3">
-        <v>2876800</v>
+        <v>2843700</v>
       </c>
       <c r="G35" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="H35" s="3">
-        <v>1836700</v>
+        <v>1815600</v>
       </c>
       <c r="I35" s="3">
-        <v>1541200</v>
+        <v>1523500</v>
       </c>
       <c r="J35" s="3">
-        <v>1297000</v>
+        <v>1282200</v>
       </c>
       <c r="K35" s="3">
         <v>1147000</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12164200</v>
+        <v>12024600</v>
       </c>
       <c r="E41" s="3">
-        <v>7998300</v>
+        <v>7906500</v>
       </c>
       <c r="F41" s="3">
-        <v>9604800</v>
+        <v>9494600</v>
       </c>
       <c r="G41" s="3">
-        <v>7504200</v>
+        <v>7418000</v>
       </c>
       <c r="H41" s="3">
-        <v>5629400</v>
+        <v>5564800</v>
       </c>
       <c r="I41" s="3">
-        <v>4936200</v>
+        <v>4879500</v>
       </c>
       <c r="J41" s="3">
-        <v>4458500</v>
+        <v>4407300</v>
       </c>
       <c r="K41" s="3">
         <v>5362300</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3529700</v>
+        <v>3489200</v>
       </c>
       <c r="E42" s="3">
-        <v>3267500</v>
+        <v>3230000</v>
       </c>
       <c r="F42" s="3">
-        <v>996100</v>
+        <v>984700</v>
       </c>
       <c r="G42" s="3">
-        <v>8495700</v>
+        <v>8398200</v>
       </c>
       <c r="H42" s="3">
-        <v>653500</v>
+        <v>646000</v>
       </c>
       <c r="I42" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J42" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="K42" s="3">
         <v>828900</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1537600</v>
+        <v>1520000</v>
       </c>
       <c r="E48" s="3">
-        <v>1425700</v>
+        <v>1409400</v>
       </c>
       <c r="F48" s="3">
-        <v>564500</v>
+        <v>558000</v>
       </c>
       <c r="G48" s="3">
-        <v>509300</v>
+        <v>503500</v>
       </c>
       <c r="H48" s="3">
-        <v>509300</v>
+        <v>503500</v>
       </c>
       <c r="I48" s="3">
-        <v>466300</v>
+        <v>461000</v>
       </c>
       <c r="J48" s="3">
-        <v>436000</v>
+        <v>431000</v>
       </c>
       <c r="K48" s="3">
         <v>453600</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="E49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="F49" s="3">
-        <v>979400</v>
+        <v>968200</v>
       </c>
       <c r="G49" s="3">
-        <v>979500</v>
+        <v>968200</v>
       </c>
       <c r="H49" s="3">
-        <v>979500</v>
+        <v>968200</v>
       </c>
       <c r="I49" s="3">
-        <v>979500</v>
+        <v>968300</v>
       </c>
       <c r="J49" s="3">
-        <v>979600</v>
+        <v>968400</v>
       </c>
       <c r="K49" s="3">
         <v>1086900</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>234996000</v>
+        <v>232299000</v>
       </c>
       <c r="E54" s="3">
-        <v>208622000</v>
+        <v>206228000</v>
       </c>
       <c r="F54" s="3">
-        <v>173571000</v>
+        <v>171579000</v>
       </c>
       <c r="G54" s="3">
-        <v>148571000</v>
+        <v>146866000</v>
       </c>
       <c r="H54" s="3">
-        <v>118505000</v>
+        <v>117145000</v>
       </c>
       <c r="I54" s="3">
-        <v>101119000</v>
+        <v>99958500</v>
       </c>
       <c r="J54" s="3">
-        <v>81805300</v>
+        <v>80866500</v>
       </c>
       <c r="K54" s="3">
         <v>74113400</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2898900</v>
+        <v>2865600</v>
       </c>
       <c r="E57" s="3">
-        <v>2397900</v>
+        <v>2370400</v>
       </c>
       <c r="F57" s="3">
-        <v>2190300</v>
+        <v>2165200</v>
       </c>
       <c r="G57" s="3">
-        <v>2248400</v>
+        <v>2222600</v>
       </c>
       <c r="H57" s="3">
-        <v>1207100</v>
+        <v>1193300</v>
       </c>
       <c r="I57" s="3">
-        <v>1011200</v>
+        <v>999600</v>
       </c>
       <c r="J57" s="3">
-        <v>777300</v>
+        <v>768400</v>
       </c>
       <c r="K57" s="3">
         <v>1327700</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1823600</v>
+        <v>1802700</v>
       </c>
       <c r="E59" s="3">
-        <v>1575100</v>
+        <v>1557000</v>
       </c>
       <c r="F59" s="3">
-        <v>755700</v>
+        <v>747000</v>
       </c>
       <c r="G59" s="3">
-        <v>688100</v>
+        <v>680200</v>
       </c>
       <c r="H59" s="3">
-        <v>440700</v>
+        <v>435600</v>
       </c>
       <c r="I59" s="3">
-        <v>355800</v>
+        <v>351700</v>
       </c>
       <c r="J59" s="3">
-        <v>267500</v>
+        <v>264500</v>
       </c>
       <c r="K59" s="3">
         <v>297800</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15354100</v>
+        <v>15177900</v>
       </c>
       <c r="E61" s="3">
-        <v>13416600</v>
+        <v>13262600</v>
       </c>
       <c r="F61" s="3">
-        <v>13652300</v>
+        <v>13495600</v>
       </c>
       <c r="G61" s="3">
-        <v>12193100</v>
+        <v>12053100</v>
       </c>
       <c r="H61" s="3">
-        <v>9553100</v>
+        <v>9443500</v>
       </c>
       <c r="I61" s="3">
-        <v>6826600</v>
+        <v>6748300</v>
       </c>
       <c r="J61" s="3">
-        <v>5985200</v>
+        <v>5916500</v>
       </c>
       <c r="K61" s="3">
         <v>5714700</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206769000</v>
+        <v>204396000</v>
       </c>
       <c r="E66" s="3">
-        <v>183879000</v>
+        <v>181769000</v>
       </c>
       <c r="F66" s="3">
-        <v>152233000</v>
+        <v>150486000</v>
       </c>
       <c r="G66" s="3">
-        <v>133224000</v>
+        <v>131695000</v>
       </c>
       <c r="H66" s="3">
-        <v>105095000</v>
+        <v>103889000</v>
       </c>
       <c r="I66" s="3">
-        <v>89757100</v>
+        <v>88727000</v>
       </c>
       <c r="J66" s="3">
-        <v>71999500</v>
+        <v>71173200</v>
       </c>
       <c r="K66" s="3">
         <v>66422000</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17418500</v>
+        <v>17218600</v>
       </c>
       <c r="E72" s="3">
-        <v>13976800</v>
+        <v>13816400</v>
       </c>
       <c r="F72" s="3">
-        <v>11443500</v>
+        <v>11312200</v>
       </c>
       <c r="G72" s="3">
-        <v>9099300</v>
+        <v>8994900</v>
       </c>
       <c r="H72" s="3">
-        <v>7216900</v>
+        <v>7134100</v>
       </c>
       <c r="I72" s="3">
-        <v>5757000</v>
+        <v>5690900</v>
       </c>
       <c r="J72" s="3">
-        <v>4534300</v>
+        <v>4482300</v>
       </c>
       <c r="K72" s="3">
         <v>3860700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28226300</v>
+        <v>27902400</v>
       </c>
       <c r="E76" s="3">
-        <v>24742600</v>
+        <v>24458600</v>
       </c>
       <c r="F76" s="3">
-        <v>21337800</v>
+        <v>21092900</v>
       </c>
       <c r="G76" s="3">
-        <v>15346300</v>
+        <v>15170200</v>
       </c>
       <c r="H76" s="3">
-        <v>13410500</v>
+        <v>13256600</v>
       </c>
       <c r="I76" s="3">
-        <v>11361900</v>
+        <v>11231500</v>
       </c>
       <c r="J76" s="3">
-        <v>9805800</v>
+        <v>9693300</v>
       </c>
       <c r="K76" s="3">
         <v>7691400</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4260500</v>
+        <v>4211600</v>
       </c>
       <c r="E81" s="3">
-        <v>3401700</v>
+        <v>3362700</v>
       </c>
       <c r="F81" s="3">
-        <v>2876800</v>
+        <v>2843700</v>
       </c>
       <c r="G81" s="3">
-        <v>2333200</v>
+        <v>2306400</v>
       </c>
       <c r="H81" s="3">
-        <v>1836700</v>
+        <v>1815600</v>
       </c>
       <c r="I81" s="3">
-        <v>1541200</v>
+        <v>1523500</v>
       </c>
       <c r="J81" s="3">
-        <v>1297000</v>
+        <v>1282200</v>
       </c>
       <c r="K81" s="3">
         <v>1147000</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>181200</v>
+        <v>179100</v>
       </c>
       <c r="E83" s="3">
-        <v>167300</v>
+        <v>165400</v>
       </c>
       <c r="F83" s="3">
-        <v>160100</v>
+        <v>158300</v>
       </c>
       <c r="G83" s="3">
-        <v>126500</v>
+        <v>125100</v>
       </c>
       <c r="H83" s="3">
-        <v>116100</v>
+        <v>114700</v>
       </c>
       <c r="I83" s="3">
-        <v>97200</v>
+        <v>96100</v>
       </c>
       <c r="J83" s="3">
-        <v>93100</v>
+        <v>92100</v>
       </c>
       <c r="K83" s="3">
         <v>123200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12047600</v>
+        <v>11909300</v>
       </c>
       <c r="E89" s="3">
-        <v>2237300</v>
+        <v>2211600</v>
       </c>
       <c r="F89" s="3">
-        <v>2395400</v>
+        <v>2367900</v>
       </c>
       <c r="G89" s="3">
-        <v>1232200</v>
+        <v>1218000</v>
       </c>
       <c r="H89" s="3">
-        <v>4957100</v>
+        <v>4900200</v>
       </c>
       <c r="I89" s="3">
-        <v>2222900</v>
+        <v>2197300</v>
       </c>
       <c r="J89" s="3">
-        <v>1429300</v>
+        <v>1412900</v>
       </c>
       <c r="K89" s="3">
         <v>1838600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-232700</v>
+        <v>-230100</v>
       </c>
       <c r="E91" s="3">
-        <v>-239100</v>
+        <v>-236400</v>
       </c>
       <c r="F91" s="3">
-        <v>-213800</v>
+        <v>-211300</v>
       </c>
       <c r="G91" s="3">
-        <v>-120000</v>
+        <v>-118600</v>
       </c>
       <c r="H91" s="3">
-        <v>-165100</v>
+        <v>-163200</v>
       </c>
       <c r="I91" s="3">
-        <v>-130500</v>
+        <v>-129000</v>
       </c>
       <c r="J91" s="3">
-        <v>-116500</v>
+        <v>-115200</v>
       </c>
       <c r="K91" s="3">
         <v>-140700</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32951400</v>
+        <v>-32573300</v>
       </c>
       <c r="E94" s="3">
-        <v>-28106900</v>
+        <v>-27784300</v>
       </c>
       <c r="F94" s="3">
-        <v>-20088400</v>
+        <v>-19857800</v>
       </c>
       <c r="G94" s="3">
-        <v>-26771600</v>
+        <v>-26464400</v>
       </c>
       <c r="H94" s="3">
-        <v>-20627100</v>
+        <v>-20390400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14963100</v>
+        <v>-14791300</v>
       </c>
       <c r="J94" s="3">
-        <v>-15313300</v>
+        <v>-15137600</v>
       </c>
       <c r="K94" s="3">
         <v>-11233600</v>
@@ -3536,22 +3536,22 @@
         <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-868500</v>
+        <v>-858500</v>
       </c>
       <c r="F96" s="3">
-        <v>-536100</v>
+        <v>-529900</v>
       </c>
       <c r="G96" s="3">
-        <v>-450800</v>
+        <v>-445600</v>
       </c>
       <c r="H96" s="3">
-        <v>-382700</v>
+        <v>-378300</v>
       </c>
       <c r="I96" s="3">
-        <v>-318500</v>
+        <v>-314800</v>
       </c>
       <c r="J96" s="3">
-        <v>-252300</v>
+        <v>-249400</v>
       </c>
       <c r="K96" s="3">
         <v>-222300</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25073100</v>
+        <v>24785300</v>
       </c>
       <c r="E100" s="3">
-        <v>24124400</v>
+        <v>23847600</v>
       </c>
       <c r="F100" s="3">
-        <v>19833700</v>
+        <v>19606100</v>
       </c>
       <c r="G100" s="3">
-        <v>27408000</v>
+        <v>27093400</v>
       </c>
       <c r="H100" s="3">
-        <v>16389500</v>
+        <v>16201400</v>
       </c>
       <c r="I100" s="3">
-        <v>13173700</v>
+        <v>13022500</v>
       </c>
       <c r="J100" s="3">
-        <v>13448300</v>
+        <v>13294000</v>
       </c>
       <c r="K100" s="3">
         <v>11487600</v>
@@ -3716,22 +3716,22 @@
         <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>138700</v>
+        <v>137100</v>
       </c>
       <c r="F101" s="3">
-        <v>-40100</v>
+        <v>-39700</v>
       </c>
       <c r="G101" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="I101" s="3">
-        <v>44200</v>
+        <v>43700</v>
       </c>
       <c r="J101" s="3">
-        <v>47400</v>
+        <v>46900</v>
       </c>
       <c r="K101" s="3">
         <v>106700</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4165800</v>
+        <v>4118000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1606500</v>
+        <v>-1588000</v>
       </c>
       <c r="F102" s="3">
-        <v>2100600</v>
+        <v>2076500</v>
       </c>
       <c r="G102" s="3">
-        <v>1874800</v>
+        <v>1853300</v>
       </c>
       <c r="H102" s="3">
-        <v>693200</v>
+        <v>685200</v>
       </c>
       <c r="I102" s="3">
-        <v>477700</v>
+        <v>472200</v>
       </c>
       <c r="J102" s="3">
-        <v>-388300</v>
+        <v>-383900</v>
       </c>
       <c r="K102" s="3">
         <v>2199300</v>

--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>HDB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,101 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16485500</v>
+        <v>16690900</v>
       </c>
       <c r="E8" s="3">
-        <v>15658800</v>
+        <v>15975100</v>
       </c>
       <c r="F8" s="3">
-        <v>13459000</v>
+        <v>15174000</v>
       </c>
       <c r="G8" s="3">
-        <v>10897600</v>
+        <v>13042300</v>
       </c>
       <c r="H8" s="3">
-        <v>9374200</v>
+        <v>10560200</v>
       </c>
       <c r="I8" s="3">
-        <v>8080500</v>
+        <v>9083900</v>
       </c>
       <c r="J8" s="3">
+        <v>7830400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6470200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6105200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5117100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4013200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,9 +793,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,9 +927,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,45 +966,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-179100</v>
+        <v>-210500</v>
       </c>
       <c r="E15" s="3">
-        <v>-165400</v>
+        <v>-173500</v>
       </c>
       <c r="F15" s="3">
-        <v>-158300</v>
+        <v>-160300</v>
       </c>
       <c r="G15" s="3">
-        <v>-125100</v>
+        <v>-153400</v>
       </c>
       <c r="H15" s="3">
-        <v>-114700</v>
+        <v>-121200</v>
       </c>
       <c r="I15" s="3">
-        <v>-96100</v>
+        <v>-111200</v>
       </c>
       <c r="J15" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-92100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-123200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-130000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-114500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9645000</v>
+        <v>8905200</v>
       </c>
       <c r="E17" s="3">
-        <v>9510100</v>
+        <v>9346400</v>
       </c>
       <c r="F17" s="3">
-        <v>7835800</v>
+        <v>9215700</v>
       </c>
       <c r="G17" s="3">
-        <v>6197900</v>
+        <v>7593200</v>
       </c>
       <c r="H17" s="3">
-        <v>5319300</v>
+        <v>6006000</v>
       </c>
       <c r="I17" s="3">
-        <v>4581400</v>
+        <v>5154600</v>
       </c>
       <c r="J17" s="3">
+        <v>4439600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3638400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3572600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3029200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2298900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6840500</v>
+        <v>7785700</v>
       </c>
       <c r="E18" s="3">
-        <v>6148700</v>
+        <v>6628800</v>
       </c>
       <c r="F18" s="3">
-        <v>5623100</v>
+        <v>5958300</v>
       </c>
       <c r="G18" s="3">
-        <v>4699700</v>
+        <v>5449000</v>
       </c>
       <c r="H18" s="3">
-        <v>4054900</v>
+        <v>4554200</v>
       </c>
       <c r="I18" s="3">
-        <v>3499100</v>
+        <v>3929300</v>
       </c>
       <c r="J18" s="3">
+        <v>3390800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2831800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2532600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2087900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1714300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,80 +1117,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1158000</v>
+        <v>-1285800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1422000</v>
+        <v>-1122100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1230900</v>
+        <v>-1378000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1119500</v>
+        <v>-1192700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1212900</v>
+        <v>-1084800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1101300</v>
+        <v>-1175400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1067200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-841800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-772100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-757900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-646600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5861600</v>
+        <v>6710600</v>
       </c>
       <c r="E21" s="3">
-        <v>4892100</v>
+        <v>5680300</v>
       </c>
       <c r="F21" s="3">
-        <v>4550500</v>
+        <v>4740800</v>
       </c>
       <c r="G21" s="3">
-        <v>3705300</v>
+        <v>4409800</v>
       </c>
       <c r="H21" s="3">
-        <v>2956700</v>
+        <v>3590700</v>
       </c>
       <c r="I21" s="3">
-        <v>2493800</v>
+        <v>2865200</v>
       </c>
       <c r="J21" s="3">
+        <v>2416700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2082100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1883800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1460100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1182200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1192,81 +1231,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5682600</v>
+        <v>6499900</v>
       </c>
       <c r="E23" s="3">
-        <v>4726700</v>
+        <v>5506600</v>
       </c>
       <c r="F23" s="3">
-        <v>4392300</v>
+        <v>4580400</v>
       </c>
       <c r="G23" s="3">
-        <v>3580200</v>
+        <v>4256300</v>
       </c>
       <c r="H23" s="3">
-        <v>2842000</v>
+        <v>3469400</v>
       </c>
       <c r="I23" s="3">
-        <v>2397800</v>
+        <v>2754000</v>
       </c>
       <c r="J23" s="3">
+        <v>2323500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1990000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1760500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1330000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1067700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1470600</v>
+        <v>1659600</v>
       </c>
       <c r="E24" s="3">
-        <v>1362800</v>
+        <v>1425000</v>
       </c>
       <c r="F24" s="3">
-        <v>1542600</v>
+        <v>1320600</v>
       </c>
       <c r="G24" s="3">
-        <v>1269700</v>
+        <v>1494800</v>
       </c>
       <c r="H24" s="3">
-        <v>1023600</v>
+        <v>1230400</v>
       </c>
       <c r="I24" s="3">
-        <v>872600</v>
+        <v>991900</v>
       </c>
       <c r="J24" s="3">
+        <v>845600</v>
+      </c>
+      <c r="K24" s="3">
         <v>704400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>611700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>431500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>344600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4212000</v>
+        <v>4840300</v>
       </c>
       <c r="E26" s="3">
-        <v>3363900</v>
+        <v>4081600</v>
       </c>
       <c r="F26" s="3">
-        <v>2849700</v>
+        <v>3259800</v>
       </c>
       <c r="G26" s="3">
-        <v>2310500</v>
+        <v>2761500</v>
       </c>
       <c r="H26" s="3">
-        <v>1818400</v>
+        <v>2239000</v>
       </c>
       <c r="I26" s="3">
-        <v>1525200</v>
+        <v>1762100</v>
       </c>
       <c r="J26" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1285600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1148800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>898500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>723100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4211600</v>
+        <v>4832700</v>
       </c>
       <c r="E27" s="3">
-        <v>3362700</v>
+        <v>4081200</v>
       </c>
       <c r="F27" s="3">
-        <v>2843700</v>
+        <v>3258600</v>
       </c>
       <c r="G27" s="3">
-        <v>2306400</v>
+        <v>2755700</v>
       </c>
       <c r="H27" s="3">
-        <v>1815600</v>
+        <v>2235000</v>
       </c>
       <c r="I27" s="3">
-        <v>1523500</v>
+        <v>1759400</v>
       </c>
       <c r="J27" s="3">
+        <v>1476300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1282200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1147000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>893900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>719900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1158000</v>
+        <v>1285800</v>
       </c>
       <c r="E32" s="3">
-        <v>1422000</v>
+        <v>1122100</v>
       </c>
       <c r="F32" s="3">
-        <v>1230900</v>
+        <v>1378000</v>
       </c>
       <c r="G32" s="3">
-        <v>1119500</v>
+        <v>1192700</v>
       </c>
       <c r="H32" s="3">
-        <v>1212900</v>
+        <v>1084800</v>
       </c>
       <c r="I32" s="3">
-        <v>1101300</v>
+        <v>1175400</v>
       </c>
       <c r="J32" s="3">
+        <v>1067200</v>
+      </c>
+      <c r="K32" s="3">
         <v>841800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>772100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>757900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>646600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4211600</v>
+        <v>4832700</v>
       </c>
       <c r="E33" s="3">
-        <v>3362700</v>
+        <v>4081200</v>
       </c>
       <c r="F33" s="3">
-        <v>2843700</v>
+        <v>3258600</v>
       </c>
       <c r="G33" s="3">
-        <v>2306400</v>
+        <v>2755700</v>
       </c>
       <c r="H33" s="3">
-        <v>1815600</v>
+        <v>2235000</v>
       </c>
       <c r="I33" s="3">
-        <v>1523500</v>
+        <v>1759400</v>
       </c>
       <c r="J33" s="3">
+        <v>1476300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1282200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1147000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>893900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>719900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4211600</v>
+        <v>4832700</v>
       </c>
       <c r="E35" s="3">
-        <v>3362700</v>
+        <v>4081200</v>
       </c>
       <c r="F35" s="3">
-        <v>2843700</v>
+        <v>3258600</v>
       </c>
       <c r="G35" s="3">
-        <v>2306400</v>
+        <v>2755700</v>
       </c>
       <c r="H35" s="3">
-        <v>1815600</v>
+        <v>2235000</v>
       </c>
       <c r="I35" s="3">
-        <v>1523500</v>
+        <v>1759400</v>
       </c>
       <c r="J35" s="3">
+        <v>1476300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1282200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1147000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>893900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>719900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,80 +1819,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12024600</v>
+        <v>14047800</v>
       </c>
       <c r="E41" s="3">
-        <v>7906500</v>
+        <v>11652300</v>
       </c>
       <c r="F41" s="3">
-        <v>9494600</v>
+        <v>7661800</v>
       </c>
       <c r="G41" s="3">
-        <v>7418000</v>
+        <v>9200600</v>
       </c>
       <c r="H41" s="3">
-        <v>5564800</v>
+        <v>7188400</v>
       </c>
       <c r="I41" s="3">
-        <v>4879500</v>
+        <v>5392500</v>
       </c>
       <c r="J41" s="3">
+        <v>4728400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4407300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5362300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3163000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2719100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3489200</v>
+        <v>4670600</v>
       </c>
       <c r="E42" s="3">
-        <v>3230000</v>
+        <v>3381200</v>
       </c>
       <c r="F42" s="3">
-        <v>984700</v>
+        <v>3130000</v>
       </c>
       <c r="G42" s="3">
-        <v>8398200</v>
+        <v>954200</v>
       </c>
       <c r="H42" s="3">
-        <v>646000</v>
+        <v>8138200</v>
       </c>
       <c r="I42" s="3">
-        <v>13200</v>
+        <v>626000</v>
       </c>
       <c r="J42" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K42" s="3">
         <v>20600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>828900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>968800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>301800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1841,9 +1933,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,9 +1972,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1913,9 +2011,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1949,9 +2050,12 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1985,81 +2089,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1520000</v>
+        <v>1720200</v>
       </c>
       <c r="E48" s="3">
-        <v>1409400</v>
+        <v>1472900</v>
       </c>
       <c r="F48" s="3">
-        <v>558000</v>
+        <v>1365700</v>
       </c>
       <c r="G48" s="3">
-        <v>503500</v>
+        <v>540700</v>
       </c>
       <c r="H48" s="3">
-        <v>503500</v>
+        <v>487900</v>
       </c>
       <c r="I48" s="3">
-        <v>461000</v>
+        <v>487900</v>
       </c>
       <c r="J48" s="3">
+        <v>446700</v>
+      </c>
+      <c r="K48" s="3">
         <v>431000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>453600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>419000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>360900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>968200</v>
+        <v>938200</v>
       </c>
       <c r="E49" s="3">
-        <v>968200</v>
+        <v>938200</v>
       </c>
       <c r="F49" s="3">
-        <v>968200</v>
+        <v>938200</v>
       </c>
       <c r="G49" s="3">
-        <v>968200</v>
+        <v>938200</v>
       </c>
       <c r="H49" s="3">
-        <v>968200</v>
+        <v>938200</v>
       </c>
       <c r="I49" s="3">
-        <v>968300</v>
+        <v>938200</v>
       </c>
       <c r="J49" s="3">
+        <v>938300</v>
+      </c>
+      <c r="K49" s="3">
         <v>968400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1086900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1109200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1142500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,9 +2245,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2165,9 +2284,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>232299000</v>
+        <v>264344000</v>
       </c>
       <c r="E54" s="3">
-        <v>206228000</v>
+        <v>225107000</v>
       </c>
       <c r="F54" s="3">
-        <v>171579000</v>
+        <v>199843000</v>
       </c>
       <c r="G54" s="3">
-        <v>146866000</v>
+        <v>166267000</v>
       </c>
       <c r="H54" s="3">
-        <v>117145000</v>
+        <v>142319000</v>
       </c>
       <c r="I54" s="3">
-        <v>99958500</v>
+        <v>113519000</v>
       </c>
       <c r="J54" s="3">
+        <v>96863800</v>
+      </c>
+      <c r="K54" s="3">
         <v>80866500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74113400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63203300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51638900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,44 +2399,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2865600</v>
+        <v>2938700</v>
       </c>
       <c r="E57" s="3">
-        <v>2370400</v>
+        <v>2776900</v>
       </c>
       <c r="F57" s="3">
-        <v>2165200</v>
+        <v>2297000</v>
       </c>
       <c r="G57" s="3">
-        <v>2222600</v>
+        <v>2098200</v>
       </c>
       <c r="H57" s="3">
-        <v>1193300</v>
+        <v>2153700</v>
       </c>
       <c r="I57" s="3">
-        <v>999600</v>
+        <v>1156300</v>
       </c>
       <c r="J57" s="3">
+        <v>968600</v>
+      </c>
+      <c r="K57" s="3">
         <v>768400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1327700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3412900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4288400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2341,45 +2474,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1802700</v>
+        <v>1711000</v>
       </c>
       <c r="E59" s="3">
-        <v>1557000</v>
+        <v>1746900</v>
       </c>
       <c r="F59" s="3">
-        <v>747000</v>
+        <v>1508800</v>
       </c>
       <c r="G59" s="3">
-        <v>680200</v>
+        <v>723900</v>
       </c>
       <c r="H59" s="3">
-        <v>435600</v>
+        <v>659100</v>
       </c>
       <c r="I59" s="3">
-        <v>351700</v>
+        <v>422100</v>
       </c>
       <c r="J59" s="3">
+        <v>340900</v>
+      </c>
+      <c r="K59" s="3">
         <v>264500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>297800</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2413,45 +2552,51 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15177900</v>
+        <v>19460300</v>
       </c>
       <c r="E61" s="3">
-        <v>13262600</v>
+        <v>14708000</v>
       </c>
       <c r="F61" s="3">
-        <v>13495600</v>
+        <v>12852000</v>
       </c>
       <c r="G61" s="3">
-        <v>12053100</v>
+        <v>13077800</v>
       </c>
       <c r="H61" s="3">
-        <v>9443500</v>
+        <v>11680000</v>
       </c>
       <c r="I61" s="3">
-        <v>6748300</v>
+        <v>9151100</v>
       </c>
       <c r="J61" s="3">
+        <v>6539400</v>
+      </c>
+      <c r="K61" s="3">
         <v>5916500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5714700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4268900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2579200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2485,9 +2630,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>204396000</v>
+        <v>232983000</v>
       </c>
       <c r="E66" s="3">
-        <v>181769000</v>
+        <v>198068000</v>
       </c>
       <c r="F66" s="3">
-        <v>150486000</v>
+        <v>176142000</v>
       </c>
       <c r="G66" s="3">
-        <v>131695000</v>
+        <v>145827000</v>
       </c>
       <c r="H66" s="3">
-        <v>103889000</v>
+        <v>127618000</v>
       </c>
       <c r="I66" s="3">
-        <v>88727000</v>
+        <v>100672000</v>
       </c>
       <c r="J66" s="3">
+        <v>85980000</v>
+      </c>
+      <c r="K66" s="3">
         <v>71173200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66422000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56429200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45926400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17218600</v>
+        <v>21064500</v>
       </c>
       <c r="E72" s="3">
-        <v>13816400</v>
+        <v>16685500</v>
       </c>
       <c r="F72" s="3">
-        <v>11312200</v>
+        <v>13388600</v>
       </c>
       <c r="G72" s="3">
-        <v>8994900</v>
+        <v>10962000</v>
       </c>
       <c r="H72" s="3">
-        <v>7134100</v>
+        <v>8716400</v>
       </c>
       <c r="I72" s="3">
-        <v>5690900</v>
+        <v>6913200</v>
       </c>
       <c r="J72" s="3">
+        <v>5514700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4482300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3860700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2939200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2212500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27902400</v>
+        <v>31360600</v>
       </c>
       <c r="E76" s="3">
-        <v>24458600</v>
+        <v>27038500</v>
       </c>
       <c r="F76" s="3">
-        <v>21092900</v>
+        <v>23701400</v>
       </c>
       <c r="G76" s="3">
-        <v>15170200</v>
+        <v>20439800</v>
       </c>
       <c r="H76" s="3">
-        <v>13256600</v>
+        <v>14700500</v>
       </c>
       <c r="I76" s="3">
-        <v>11231500</v>
+        <v>12846200</v>
       </c>
       <c r="J76" s="3">
+        <v>10883800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9693300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7691400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6774100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5712500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4211600</v>
+        <v>4832700</v>
       </c>
       <c r="E81" s="3">
-        <v>3362700</v>
+        <v>4081200</v>
       </c>
       <c r="F81" s="3">
-        <v>2843700</v>
+        <v>3258600</v>
       </c>
       <c r="G81" s="3">
-        <v>2306400</v>
+        <v>2755700</v>
       </c>
       <c r="H81" s="3">
-        <v>1815600</v>
+        <v>2235000</v>
       </c>
       <c r="I81" s="3">
-        <v>1523500</v>
+        <v>1759400</v>
       </c>
       <c r="J81" s="3">
+        <v>1476300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1282200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1147000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>893900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>719900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>179100</v>
+        <v>210500</v>
       </c>
       <c r="E83" s="3">
-        <v>165400</v>
+        <v>173500</v>
       </c>
       <c r="F83" s="3">
-        <v>158300</v>
+        <v>160300</v>
       </c>
       <c r="G83" s="3">
-        <v>125100</v>
+        <v>153400</v>
       </c>
       <c r="H83" s="3">
-        <v>114700</v>
+        <v>121200</v>
       </c>
       <c r="I83" s="3">
-        <v>96100</v>
+        <v>111200</v>
       </c>
       <c r="J83" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K83" s="3">
         <v>92100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>114500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11909300</v>
+        <v>7274300</v>
       </c>
       <c r="E89" s="3">
-        <v>2211600</v>
+        <v>11540600</v>
       </c>
       <c r="F89" s="3">
-        <v>2367900</v>
+        <v>2143200</v>
       </c>
       <c r="G89" s="3">
-        <v>1218000</v>
+        <v>2294600</v>
       </c>
       <c r="H89" s="3">
-        <v>4900200</v>
+        <v>1180300</v>
       </c>
       <c r="I89" s="3">
-        <v>2197300</v>
+        <v>4748500</v>
       </c>
       <c r="J89" s="3">
+        <v>2129300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1412900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1838600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1034100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>542100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-230100</v>
+        <v>-329600</v>
       </c>
       <c r="E91" s="3">
-        <v>-236400</v>
+        <v>-222900</v>
       </c>
       <c r="F91" s="3">
-        <v>-211300</v>
+        <v>-229000</v>
       </c>
       <c r="G91" s="3">
-        <v>-118600</v>
+        <v>-204800</v>
       </c>
       <c r="H91" s="3">
-        <v>-163200</v>
+        <v>-115000</v>
       </c>
       <c r="I91" s="3">
-        <v>-129000</v>
+        <v>-158100</v>
       </c>
       <c r="J91" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-115200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-140700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-144500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-114600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32573300</v>
+        <v>-41344500</v>
       </c>
       <c r="E94" s="3">
-        <v>-27784300</v>
+        <v>-31564800</v>
       </c>
       <c r="F94" s="3">
-        <v>-19857800</v>
+        <v>-26924100</v>
       </c>
       <c r="G94" s="3">
-        <v>-26464400</v>
+        <v>-19243000</v>
       </c>
       <c r="H94" s="3">
-        <v>-20390400</v>
+        <v>-25645000</v>
       </c>
       <c r="I94" s="3">
-        <v>-14791300</v>
+        <v>-19759100</v>
       </c>
       <c r="J94" s="3">
+        <v>-14333400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15137600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11233600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9904700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9314000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2200</v>
+        <v>-453700</v>
       </c>
       <c r="E96" s="3">
-        <v>-858500</v>
+        <v>-2100</v>
       </c>
       <c r="F96" s="3">
-        <v>-529900</v>
+        <v>-831900</v>
       </c>
       <c r="G96" s="3">
-        <v>-445600</v>
+        <v>-513500</v>
       </c>
       <c r="H96" s="3">
-        <v>-378300</v>
+        <v>-431800</v>
       </c>
       <c r="I96" s="3">
-        <v>-314800</v>
+        <v>-366600</v>
       </c>
       <c r="J96" s="3">
+        <v>-305100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-249400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-222300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-170400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-129400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24785300</v>
+        <v>36459600</v>
       </c>
       <c r="E100" s="3">
-        <v>23847600</v>
+        <v>24018000</v>
       </c>
       <c r="F100" s="3">
-        <v>19606100</v>
+        <v>23109200</v>
       </c>
       <c r="G100" s="3">
-        <v>27093400</v>
+        <v>18999100</v>
       </c>
       <c r="H100" s="3">
-        <v>16201400</v>
+        <v>26254600</v>
       </c>
       <c r="I100" s="3">
-        <v>13022500</v>
+        <v>15699800</v>
       </c>
       <c r="J100" s="3">
+        <v>12619300</v>
+      </c>
+      <c r="K100" s="3">
         <v>13294000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11487600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9292200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7264000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>6100</v>
       </c>
       <c r="E101" s="3">
-        <v>137100</v>
+        <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-39700</v>
+        <v>132800</v>
       </c>
       <c r="G101" s="3">
-        <v>6200</v>
+        <v>-38400</v>
       </c>
       <c r="H101" s="3">
-        <v>-25900</v>
+        <v>6000</v>
       </c>
       <c r="I101" s="3">
-        <v>43700</v>
+        <v>-25100</v>
       </c>
       <c r="J101" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K101" s="3">
         <v>46900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>106700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>49400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4118000</v>
+        <v>2395500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1588000</v>
+        <v>3990500</v>
       </c>
       <c r="F102" s="3">
-        <v>2076500</v>
+        <v>-1538900</v>
       </c>
       <c r="G102" s="3">
-        <v>1853300</v>
+        <v>2012200</v>
       </c>
       <c r="H102" s="3">
-        <v>685200</v>
+        <v>1795900</v>
       </c>
       <c r="I102" s="3">
-        <v>472200</v>
+        <v>664000</v>
       </c>
       <c r="J102" s="3">
+        <v>457600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-383900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2199300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>443900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1458400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16690900</v>
+        <v>16530900</v>
       </c>
       <c r="E8" s="3">
-        <v>15975100</v>
+        <v>15822000</v>
       </c>
       <c r="F8" s="3">
-        <v>15174000</v>
+        <v>15028600</v>
       </c>
       <c r="G8" s="3">
-        <v>13042300</v>
+        <v>12917300</v>
       </c>
       <c r="H8" s="3">
-        <v>10560200</v>
+        <v>10459000</v>
       </c>
       <c r="I8" s="3">
-        <v>9083900</v>
+        <v>8996900</v>
       </c>
       <c r="J8" s="3">
-        <v>7830400</v>
+        <v>7755300</v>
       </c>
       <c r="K8" s="3">
         <v>6470200</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-210500</v>
+        <v>-208500</v>
       </c>
       <c r="E15" s="3">
-        <v>-173500</v>
+        <v>-171900</v>
       </c>
       <c r="F15" s="3">
-        <v>-160300</v>
+        <v>-158700</v>
       </c>
       <c r="G15" s="3">
-        <v>-153400</v>
+        <v>-151900</v>
       </c>
       <c r="H15" s="3">
-        <v>-121200</v>
+        <v>-120000</v>
       </c>
       <c r="I15" s="3">
-        <v>-111200</v>
+        <v>-110100</v>
       </c>
       <c r="J15" s="3">
-        <v>-93100</v>
+        <v>-92200</v>
       </c>
       <c r="K15" s="3">
         <v>-92100</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8905200</v>
+        <v>8819800</v>
       </c>
       <c r="E17" s="3">
-        <v>9346400</v>
+        <v>9256800</v>
       </c>
       <c r="F17" s="3">
-        <v>9215700</v>
+        <v>9127400</v>
       </c>
       <c r="G17" s="3">
-        <v>7593200</v>
+        <v>7520500</v>
       </c>
       <c r="H17" s="3">
-        <v>6006000</v>
+        <v>5948400</v>
       </c>
       <c r="I17" s="3">
-        <v>5154600</v>
+        <v>5105200</v>
       </c>
       <c r="J17" s="3">
-        <v>4439600</v>
+        <v>4397000</v>
       </c>
       <c r="K17" s="3">
         <v>3638400</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7785700</v>
+        <v>7711100</v>
       </c>
       <c r="E18" s="3">
-        <v>6628800</v>
+        <v>6565200</v>
       </c>
       <c r="F18" s="3">
-        <v>5958300</v>
+        <v>5901200</v>
       </c>
       <c r="G18" s="3">
-        <v>5449000</v>
+        <v>5396800</v>
       </c>
       <c r="H18" s="3">
-        <v>4554200</v>
+        <v>4510500</v>
       </c>
       <c r="I18" s="3">
-        <v>3929300</v>
+        <v>3891700</v>
       </c>
       <c r="J18" s="3">
-        <v>3390800</v>
+        <v>3358300</v>
       </c>
       <c r="K18" s="3">
         <v>2831800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1285800</v>
+        <v>-1273500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1122100</v>
+        <v>-1111400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1378000</v>
+        <v>-1364800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1192700</v>
+        <v>-1181300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1084800</v>
+        <v>-1074400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1175400</v>
+        <v>-1164100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1067200</v>
+        <v>-1057000</v>
       </c>
       <c r="K20" s="3">
         <v>-841800</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6710600</v>
+        <v>6644300</v>
       </c>
       <c r="E21" s="3">
-        <v>5680300</v>
+        <v>5624200</v>
       </c>
       <c r="F21" s="3">
-        <v>4740800</v>
+        <v>4693800</v>
       </c>
       <c r="G21" s="3">
-        <v>4409800</v>
+        <v>4366000</v>
       </c>
       <c r="H21" s="3">
-        <v>3590700</v>
+        <v>3555100</v>
       </c>
       <c r="I21" s="3">
-        <v>2865200</v>
+        <v>2836700</v>
       </c>
       <c r="J21" s="3">
-        <v>2416700</v>
+        <v>2392600</v>
       </c>
       <c r="K21" s="3">
         <v>2082100</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6499900</v>
+        <v>6437600</v>
       </c>
       <c r="E23" s="3">
-        <v>5506600</v>
+        <v>5453800</v>
       </c>
       <c r="F23" s="3">
-        <v>4580400</v>
+        <v>4536500</v>
       </c>
       <c r="G23" s="3">
-        <v>4256300</v>
+        <v>4215500</v>
       </c>
       <c r="H23" s="3">
-        <v>3469400</v>
+        <v>3436100</v>
       </c>
       <c r="I23" s="3">
-        <v>2754000</v>
+        <v>2727600</v>
       </c>
       <c r="J23" s="3">
-        <v>2323500</v>
+        <v>2301300</v>
       </c>
       <c r="K23" s="3">
         <v>1990000</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1659600</v>
+        <v>1643700</v>
       </c>
       <c r="E24" s="3">
-        <v>1425000</v>
+        <v>1411400</v>
       </c>
       <c r="F24" s="3">
-        <v>1320600</v>
+        <v>1308000</v>
       </c>
       <c r="G24" s="3">
-        <v>1494800</v>
+        <v>1480500</v>
       </c>
       <c r="H24" s="3">
-        <v>1230400</v>
+        <v>1218600</v>
       </c>
       <c r="I24" s="3">
-        <v>991900</v>
+        <v>982400</v>
       </c>
       <c r="J24" s="3">
-        <v>845600</v>
+        <v>837500</v>
       </c>
       <c r="K24" s="3">
         <v>704400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4840300</v>
+        <v>4793900</v>
       </c>
       <c r="E26" s="3">
-        <v>4081600</v>
+        <v>4042500</v>
       </c>
       <c r="F26" s="3">
-        <v>3259800</v>
+        <v>3228500</v>
       </c>
       <c r="G26" s="3">
-        <v>2761500</v>
+        <v>2735000</v>
       </c>
       <c r="H26" s="3">
-        <v>2239000</v>
+        <v>2217500</v>
       </c>
       <c r="I26" s="3">
-        <v>1762100</v>
+        <v>1745200</v>
       </c>
       <c r="J26" s="3">
-        <v>1478000</v>
+        <v>1463800</v>
       </c>
       <c r="K26" s="3">
         <v>1285600</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4832700</v>
+        <v>4786400</v>
       </c>
       <c r="E27" s="3">
-        <v>4081200</v>
+        <v>4042100</v>
       </c>
       <c r="F27" s="3">
-        <v>3258600</v>
+        <v>3227300</v>
       </c>
       <c r="G27" s="3">
-        <v>2755700</v>
+        <v>2729300</v>
       </c>
       <c r="H27" s="3">
-        <v>2235000</v>
+        <v>2213600</v>
       </c>
       <c r="I27" s="3">
-        <v>1759400</v>
+        <v>1742600</v>
       </c>
       <c r="J27" s="3">
-        <v>1476300</v>
+        <v>1462100</v>
       </c>
       <c r="K27" s="3">
         <v>1282200</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1285800</v>
+        <v>1273500</v>
       </c>
       <c r="E32" s="3">
-        <v>1122100</v>
+        <v>1111400</v>
       </c>
       <c r="F32" s="3">
-        <v>1378000</v>
+        <v>1364800</v>
       </c>
       <c r="G32" s="3">
-        <v>1192700</v>
+        <v>1181300</v>
       </c>
       <c r="H32" s="3">
-        <v>1084800</v>
+        <v>1074400</v>
       </c>
       <c r="I32" s="3">
-        <v>1175400</v>
+        <v>1164100</v>
       </c>
       <c r="J32" s="3">
-        <v>1067200</v>
+        <v>1057000</v>
       </c>
       <c r="K32" s="3">
         <v>841800</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4832700</v>
+        <v>4786400</v>
       </c>
       <c r="E33" s="3">
-        <v>4081200</v>
+        <v>4042100</v>
       </c>
       <c r="F33" s="3">
-        <v>3258600</v>
+        <v>3227300</v>
       </c>
       <c r="G33" s="3">
-        <v>2755700</v>
+        <v>2729300</v>
       </c>
       <c r="H33" s="3">
-        <v>2235000</v>
+        <v>2213600</v>
       </c>
       <c r="I33" s="3">
-        <v>1759400</v>
+        <v>1742600</v>
       </c>
       <c r="J33" s="3">
-        <v>1476300</v>
+        <v>1462100</v>
       </c>
       <c r="K33" s="3">
         <v>1282200</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4832700</v>
+        <v>4786400</v>
       </c>
       <c r="E35" s="3">
-        <v>4081200</v>
+        <v>4042100</v>
       </c>
       <c r="F35" s="3">
-        <v>3258600</v>
+        <v>3227300</v>
       </c>
       <c r="G35" s="3">
-        <v>2755700</v>
+        <v>2729300</v>
       </c>
       <c r="H35" s="3">
-        <v>2235000</v>
+        <v>2213600</v>
       </c>
       <c r="I35" s="3">
-        <v>1759400</v>
+        <v>1742600</v>
       </c>
       <c r="J35" s="3">
-        <v>1476300</v>
+        <v>1462100</v>
       </c>
       <c r="K35" s="3">
         <v>1282200</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14047800</v>
+        <v>13913200</v>
       </c>
       <c r="E41" s="3">
-        <v>11652300</v>
+        <v>11540600</v>
       </c>
       <c r="F41" s="3">
-        <v>7661800</v>
+        <v>7588300</v>
       </c>
       <c r="G41" s="3">
-        <v>9200600</v>
+        <v>9112400</v>
       </c>
       <c r="H41" s="3">
-        <v>7188400</v>
+        <v>7119500</v>
       </c>
       <c r="I41" s="3">
-        <v>5392500</v>
+        <v>5340800</v>
       </c>
       <c r="J41" s="3">
-        <v>4728400</v>
+        <v>4683100</v>
       </c>
       <c r="K41" s="3">
         <v>4407300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4670600</v>
+        <v>4625900</v>
       </c>
       <c r="E42" s="3">
-        <v>3381200</v>
+        <v>3348700</v>
       </c>
       <c r="F42" s="3">
-        <v>3130000</v>
+        <v>3100000</v>
       </c>
       <c r="G42" s="3">
-        <v>954200</v>
+        <v>945000</v>
       </c>
       <c r="H42" s="3">
-        <v>8138200</v>
+        <v>8060200</v>
       </c>
       <c r="I42" s="3">
-        <v>626000</v>
+        <v>620000</v>
       </c>
       <c r="J42" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="K42" s="3">
         <v>20600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1720200</v>
+        <v>1703700</v>
       </c>
       <c r="E48" s="3">
-        <v>1472900</v>
+        <v>1458800</v>
       </c>
       <c r="F48" s="3">
-        <v>1365700</v>
+        <v>1352600</v>
       </c>
       <c r="G48" s="3">
-        <v>540700</v>
+        <v>535500</v>
       </c>
       <c r="H48" s="3">
-        <v>487900</v>
+        <v>483200</v>
       </c>
       <c r="I48" s="3">
-        <v>487900</v>
+        <v>483200</v>
       </c>
       <c r="J48" s="3">
-        <v>446700</v>
+        <v>442400</v>
       </c>
       <c r="K48" s="3">
         <v>431000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="E49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="F49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="G49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="H49" s="3">
-        <v>938200</v>
+        <v>929200</v>
       </c>
       <c r="I49" s="3">
-        <v>938200</v>
+        <v>929300</v>
       </c>
       <c r="J49" s="3">
-        <v>938300</v>
+        <v>929300</v>
       </c>
       <c r="K49" s="3">
         <v>968400</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264344000</v>
+        <v>261810000</v>
       </c>
       <c r="E54" s="3">
-        <v>225107000</v>
+        <v>222949000</v>
       </c>
       <c r="F54" s="3">
-        <v>199843000</v>
+        <v>197927000</v>
       </c>
       <c r="G54" s="3">
-        <v>166267000</v>
+        <v>164673000</v>
       </c>
       <c r="H54" s="3">
-        <v>142319000</v>
+        <v>140955000</v>
       </c>
       <c r="I54" s="3">
-        <v>113519000</v>
+        <v>112431000</v>
       </c>
       <c r="J54" s="3">
-        <v>96863800</v>
+        <v>95935400</v>
       </c>
       <c r="K54" s="3">
         <v>80866500</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2938700</v>
+        <v>2910600</v>
       </c>
       <c r="E57" s="3">
-        <v>2776900</v>
+        <v>2750300</v>
       </c>
       <c r="F57" s="3">
-        <v>2297000</v>
+        <v>2275000</v>
       </c>
       <c r="G57" s="3">
-        <v>2098200</v>
+        <v>2078100</v>
       </c>
       <c r="H57" s="3">
-        <v>2153700</v>
+        <v>2133100</v>
       </c>
       <c r="I57" s="3">
-        <v>1156300</v>
+        <v>1145300</v>
       </c>
       <c r="J57" s="3">
-        <v>968600</v>
+        <v>959300</v>
       </c>
       <c r="K57" s="3">
         <v>768400</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1711000</v>
+        <v>1694600</v>
       </c>
       <c r="E59" s="3">
-        <v>1746900</v>
+        <v>1730100</v>
       </c>
       <c r="F59" s="3">
-        <v>1508800</v>
+        <v>1494400</v>
       </c>
       <c r="G59" s="3">
-        <v>723900</v>
+        <v>716900</v>
       </c>
       <c r="H59" s="3">
-        <v>659100</v>
+        <v>652800</v>
       </c>
       <c r="I59" s="3">
-        <v>422100</v>
+        <v>418100</v>
       </c>
       <c r="J59" s="3">
-        <v>340900</v>
+        <v>337600</v>
       </c>
       <c r="K59" s="3">
         <v>264500</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19460300</v>
+        <v>19273700</v>
       </c>
       <c r="E61" s="3">
-        <v>14708000</v>
+        <v>14567000</v>
       </c>
       <c r="F61" s="3">
-        <v>12852000</v>
+        <v>12728800</v>
       </c>
       <c r="G61" s="3">
-        <v>13077800</v>
+        <v>12952500</v>
       </c>
       <c r="H61" s="3">
-        <v>11680000</v>
+        <v>11568000</v>
       </c>
       <c r="I61" s="3">
-        <v>9151100</v>
+        <v>9063400</v>
       </c>
       <c r="J61" s="3">
-        <v>6539400</v>
+        <v>6476700</v>
       </c>
       <c r="K61" s="3">
         <v>5916500</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>232983000</v>
+        <v>230750000</v>
       </c>
       <c r="E66" s="3">
-        <v>198068000</v>
+        <v>196170000</v>
       </c>
       <c r="F66" s="3">
-        <v>176142000</v>
+        <v>174453000</v>
       </c>
       <c r="G66" s="3">
-        <v>145827000</v>
+        <v>144429000</v>
       </c>
       <c r="H66" s="3">
-        <v>127618000</v>
+        <v>126395000</v>
       </c>
       <c r="I66" s="3">
-        <v>100672000</v>
+        <v>99707500</v>
       </c>
       <c r="J66" s="3">
-        <v>85980000</v>
+        <v>85155900</v>
       </c>
       <c r="K66" s="3">
         <v>71173200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21064500</v>
+        <v>20862600</v>
       </c>
       <c r="E72" s="3">
-        <v>16685500</v>
+        <v>16525600</v>
       </c>
       <c r="F72" s="3">
-        <v>13388600</v>
+        <v>13260300</v>
       </c>
       <c r="G72" s="3">
-        <v>10962000</v>
+        <v>10856900</v>
       </c>
       <c r="H72" s="3">
-        <v>8716400</v>
+        <v>8632900</v>
       </c>
       <c r="I72" s="3">
-        <v>6913200</v>
+        <v>6847000</v>
       </c>
       <c r="J72" s="3">
-        <v>5514700</v>
+        <v>5461900</v>
       </c>
       <c r="K72" s="3">
         <v>4482300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31360600</v>
+        <v>31060000</v>
       </c>
       <c r="E76" s="3">
-        <v>27038500</v>
+        <v>26779400</v>
       </c>
       <c r="F76" s="3">
-        <v>23701400</v>
+        <v>23474200</v>
       </c>
       <c r="G76" s="3">
-        <v>20439800</v>
+        <v>20243900</v>
       </c>
       <c r="H76" s="3">
-        <v>14700500</v>
+        <v>14559600</v>
       </c>
       <c r="I76" s="3">
-        <v>12846200</v>
+        <v>12723100</v>
       </c>
       <c r="J76" s="3">
-        <v>10883800</v>
+        <v>10779400</v>
       </c>
       <c r="K76" s="3">
         <v>9693300</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4832700</v>
+        <v>4786400</v>
       </c>
       <c r="E81" s="3">
-        <v>4081200</v>
+        <v>4042100</v>
       </c>
       <c r="F81" s="3">
-        <v>3258600</v>
+        <v>3227300</v>
       </c>
       <c r="G81" s="3">
-        <v>2755700</v>
+        <v>2729300</v>
       </c>
       <c r="H81" s="3">
-        <v>2235000</v>
+        <v>2213600</v>
       </c>
       <c r="I81" s="3">
-        <v>1759400</v>
+        <v>1742600</v>
       </c>
       <c r="J81" s="3">
-        <v>1476300</v>
+        <v>1462100</v>
       </c>
       <c r="K81" s="3">
         <v>1282200</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>210500</v>
+        <v>208500</v>
       </c>
       <c r="E83" s="3">
-        <v>173500</v>
+        <v>171900</v>
       </c>
       <c r="F83" s="3">
-        <v>160300</v>
+        <v>158700</v>
       </c>
       <c r="G83" s="3">
-        <v>153400</v>
+        <v>151900</v>
       </c>
       <c r="H83" s="3">
-        <v>121200</v>
+        <v>120000</v>
       </c>
       <c r="I83" s="3">
-        <v>111200</v>
+        <v>110100</v>
       </c>
       <c r="J83" s="3">
-        <v>93100</v>
+        <v>92200</v>
       </c>
       <c r="K83" s="3">
         <v>92100</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7274300</v>
+        <v>7204600</v>
       </c>
       <c r="E89" s="3">
-        <v>11540600</v>
+        <v>11430000</v>
       </c>
       <c r="F89" s="3">
-        <v>2143200</v>
+        <v>2122600</v>
       </c>
       <c r="G89" s="3">
-        <v>2294600</v>
+        <v>2272600</v>
       </c>
       <c r="H89" s="3">
-        <v>1180300</v>
+        <v>1169000</v>
       </c>
       <c r="I89" s="3">
-        <v>4748500</v>
+        <v>4703000</v>
       </c>
       <c r="J89" s="3">
-        <v>2129300</v>
+        <v>2108900</v>
       </c>
       <c r="K89" s="3">
         <v>1412900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-329600</v>
+        <v>-326400</v>
       </c>
       <c r="E91" s="3">
-        <v>-222900</v>
+        <v>-220800</v>
       </c>
       <c r="F91" s="3">
-        <v>-229000</v>
+        <v>-226800</v>
       </c>
       <c r="G91" s="3">
-        <v>-204800</v>
+        <v>-202800</v>
       </c>
       <c r="H91" s="3">
-        <v>-115000</v>
+        <v>-113900</v>
       </c>
       <c r="I91" s="3">
-        <v>-158100</v>
+        <v>-156600</v>
       </c>
       <c r="J91" s="3">
-        <v>-125000</v>
+        <v>-123800</v>
       </c>
       <c r="K91" s="3">
         <v>-115200</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41344500</v>
+        <v>-40948300</v>
       </c>
       <c r="E94" s="3">
-        <v>-31564800</v>
+        <v>-31262300</v>
       </c>
       <c r="F94" s="3">
-        <v>-26924100</v>
+        <v>-26666100</v>
       </c>
       <c r="G94" s="3">
-        <v>-19243000</v>
+        <v>-19058600</v>
       </c>
       <c r="H94" s="3">
-        <v>-25645000</v>
+        <v>-25399200</v>
       </c>
       <c r="I94" s="3">
-        <v>-19759100</v>
+        <v>-19569700</v>
       </c>
       <c r="J94" s="3">
-        <v>-14333400</v>
+        <v>-14196000</v>
       </c>
       <c r="K94" s="3">
         <v>-15137600</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-453700</v>
+        <v>-449400</v>
       </c>
       <c r="E96" s="3">
         <v>-2100</v>
       </c>
       <c r="F96" s="3">
-        <v>-831900</v>
+        <v>-823900</v>
       </c>
       <c r="G96" s="3">
-        <v>-513500</v>
+        <v>-508600</v>
       </c>
       <c r="H96" s="3">
-        <v>-431800</v>
+        <v>-427700</v>
       </c>
       <c r="I96" s="3">
-        <v>-366600</v>
+        <v>-363100</v>
       </c>
       <c r="J96" s="3">
-        <v>-305100</v>
+        <v>-302200</v>
       </c>
       <c r="K96" s="3">
         <v>-249400</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>36459600</v>
+        <v>36110100</v>
       </c>
       <c r="E100" s="3">
-        <v>24018000</v>
+        <v>23787800</v>
       </c>
       <c r="F100" s="3">
-        <v>23109200</v>
+        <v>22887800</v>
       </c>
       <c r="G100" s="3">
-        <v>18999100</v>
+        <v>18817000</v>
       </c>
       <c r="H100" s="3">
-        <v>26254600</v>
+        <v>26003000</v>
       </c>
       <c r="I100" s="3">
-        <v>15699800</v>
+        <v>15549300</v>
       </c>
       <c r="J100" s="3">
-        <v>12619300</v>
+        <v>12498300</v>
       </c>
       <c r="K100" s="3">
         <v>13294000</v>
@@ -3967,19 +3967,19 @@
         <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>132800</v>
+        <v>131600</v>
       </c>
       <c r="G101" s="3">
-        <v>-38400</v>
+        <v>-38100</v>
       </c>
       <c r="H101" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I101" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="J101" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="K101" s="3">
         <v>46900</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2395500</v>
+        <v>2372600</v>
       </c>
       <c r="E102" s="3">
-        <v>3990500</v>
+        <v>3952300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1538900</v>
+        <v>-1524100</v>
       </c>
       <c r="G102" s="3">
-        <v>2012200</v>
+        <v>1992900</v>
       </c>
       <c r="H102" s="3">
-        <v>1795900</v>
+        <v>1778700</v>
       </c>
       <c r="I102" s="3">
-        <v>664000</v>
+        <v>657700</v>
       </c>
       <c r="J102" s="3">
-        <v>457600</v>
+        <v>453200</v>
       </c>
       <c r="K102" s="3">
         <v>-383900</v>

--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16530900</v>
+        <v>16250900</v>
       </c>
       <c r="E8" s="3">
-        <v>15822000</v>
+        <v>15554000</v>
       </c>
       <c r="F8" s="3">
-        <v>15028600</v>
+        <v>14774100</v>
       </c>
       <c r="G8" s="3">
-        <v>12917300</v>
+        <v>12698500</v>
       </c>
       <c r="H8" s="3">
-        <v>10459000</v>
+        <v>10281800</v>
       </c>
       <c r="I8" s="3">
-        <v>8996900</v>
+        <v>8844500</v>
       </c>
       <c r="J8" s="3">
-        <v>7755300</v>
+        <v>7624000</v>
       </c>
       <c r="K8" s="3">
         <v>6470200</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-208500</v>
+        <v>-205000</v>
       </c>
       <c r="E15" s="3">
-        <v>-171900</v>
+        <v>-169000</v>
       </c>
       <c r="F15" s="3">
-        <v>-158700</v>
+        <v>-156000</v>
       </c>
       <c r="G15" s="3">
-        <v>-151900</v>
+        <v>-149300</v>
       </c>
       <c r="H15" s="3">
-        <v>-120000</v>
+        <v>-118000</v>
       </c>
       <c r="I15" s="3">
-        <v>-110100</v>
+        <v>-108200</v>
       </c>
       <c r="J15" s="3">
-        <v>-92200</v>
+        <v>-90600</v>
       </c>
       <c r="K15" s="3">
         <v>-92100</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8819800</v>
+        <v>8670500</v>
       </c>
       <c r="E17" s="3">
-        <v>9256800</v>
+        <v>9100000</v>
       </c>
       <c r="F17" s="3">
-        <v>9127400</v>
+        <v>8972800</v>
       </c>
       <c r="G17" s="3">
-        <v>7520500</v>
+        <v>7393100</v>
       </c>
       <c r="H17" s="3">
-        <v>5948400</v>
+        <v>5847700</v>
       </c>
       <c r="I17" s="3">
-        <v>5105200</v>
+        <v>5018700</v>
       </c>
       <c r="J17" s="3">
-        <v>4397000</v>
+        <v>4322600</v>
       </c>
       <c r="K17" s="3">
         <v>3638400</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7711100</v>
+        <v>7580500</v>
       </c>
       <c r="E18" s="3">
-        <v>6565200</v>
+        <v>6454000</v>
       </c>
       <c r="F18" s="3">
-        <v>5901200</v>
+        <v>5801300</v>
       </c>
       <c r="G18" s="3">
-        <v>5396800</v>
+        <v>5305400</v>
       </c>
       <c r="H18" s="3">
-        <v>4510500</v>
+        <v>4434100</v>
       </c>
       <c r="I18" s="3">
-        <v>3891700</v>
+        <v>3825800</v>
       </c>
       <c r="J18" s="3">
-        <v>3358300</v>
+        <v>3301400</v>
       </c>
       <c r="K18" s="3">
         <v>2831800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1273500</v>
+        <v>-1251900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1111400</v>
+        <v>-1092500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1364800</v>
+        <v>-1341600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1181300</v>
+        <v>-1161300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1074400</v>
+        <v>-1056200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1164100</v>
+        <v>-1144400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1057000</v>
+        <v>-1039100</v>
       </c>
       <c r="K20" s="3">
         <v>-841800</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6644300</v>
+        <v>6533800</v>
       </c>
       <c r="E21" s="3">
-        <v>5624200</v>
+        <v>5530600</v>
       </c>
       <c r="F21" s="3">
-        <v>4693800</v>
+        <v>4615800</v>
       </c>
       <c r="G21" s="3">
-        <v>4366000</v>
+        <v>4293500</v>
       </c>
       <c r="H21" s="3">
-        <v>3555100</v>
+        <v>3496000</v>
       </c>
       <c r="I21" s="3">
-        <v>2836700</v>
+        <v>2789700</v>
       </c>
       <c r="J21" s="3">
-        <v>2392600</v>
+        <v>2353000</v>
       </c>
       <c r="K21" s="3">
         <v>2082100</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6437600</v>
+        <v>6328600</v>
       </c>
       <c r="E23" s="3">
-        <v>5453800</v>
+        <v>5361500</v>
       </c>
       <c r="F23" s="3">
-        <v>4536500</v>
+        <v>4459600</v>
       </c>
       <c r="G23" s="3">
-        <v>4215500</v>
+        <v>4144100</v>
       </c>
       <c r="H23" s="3">
-        <v>3436100</v>
+        <v>3377900</v>
       </c>
       <c r="I23" s="3">
-        <v>2727600</v>
+        <v>2681400</v>
       </c>
       <c r="J23" s="3">
-        <v>2301300</v>
+        <v>2262300</v>
       </c>
       <c r="K23" s="3">
         <v>1990000</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1643700</v>
+        <v>1615900</v>
       </c>
       <c r="E24" s="3">
-        <v>1411400</v>
+        <v>1387500</v>
       </c>
       <c r="F24" s="3">
-        <v>1308000</v>
+        <v>1285800</v>
       </c>
       <c r="G24" s="3">
-        <v>1480500</v>
+        <v>1455400</v>
       </c>
       <c r="H24" s="3">
-        <v>1218600</v>
+        <v>1197900</v>
       </c>
       <c r="I24" s="3">
-        <v>982400</v>
+        <v>965800</v>
       </c>
       <c r="J24" s="3">
-        <v>837500</v>
+        <v>823300</v>
       </c>
       <c r="K24" s="3">
         <v>704400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4793900</v>
+        <v>4712700</v>
       </c>
       <c r="E26" s="3">
-        <v>4042500</v>
+        <v>3974000</v>
       </c>
       <c r="F26" s="3">
-        <v>3228500</v>
+        <v>3173800</v>
       </c>
       <c r="G26" s="3">
-        <v>2735000</v>
+        <v>2688700</v>
       </c>
       <c r="H26" s="3">
-        <v>2217500</v>
+        <v>2180000</v>
       </c>
       <c r="I26" s="3">
-        <v>1745200</v>
+        <v>1715600</v>
       </c>
       <c r="J26" s="3">
-        <v>1463800</v>
+        <v>1439000</v>
       </c>
       <c r="K26" s="3">
         <v>1285600</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4786400</v>
+        <v>4705300</v>
       </c>
       <c r="E27" s="3">
-        <v>4042100</v>
+        <v>3973700</v>
       </c>
       <c r="F27" s="3">
-        <v>3227300</v>
+        <v>3172700</v>
       </c>
       <c r="G27" s="3">
-        <v>2729300</v>
+        <v>2683100</v>
       </c>
       <c r="H27" s="3">
-        <v>2213600</v>
+        <v>2176100</v>
       </c>
       <c r="I27" s="3">
-        <v>1742600</v>
+        <v>1713100</v>
       </c>
       <c r="J27" s="3">
-        <v>1462100</v>
+        <v>1437400</v>
       </c>
       <c r="K27" s="3">
         <v>1282200</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1273500</v>
+        <v>1251900</v>
       </c>
       <c r="E32" s="3">
-        <v>1111400</v>
+        <v>1092500</v>
       </c>
       <c r="F32" s="3">
-        <v>1364800</v>
+        <v>1341600</v>
       </c>
       <c r="G32" s="3">
-        <v>1181300</v>
+        <v>1161300</v>
       </c>
       <c r="H32" s="3">
-        <v>1074400</v>
+        <v>1056200</v>
       </c>
       <c r="I32" s="3">
-        <v>1164100</v>
+        <v>1144400</v>
       </c>
       <c r="J32" s="3">
-        <v>1057000</v>
+        <v>1039100</v>
       </c>
       <c r="K32" s="3">
         <v>841800</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4786400</v>
+        <v>4705300</v>
       </c>
       <c r="E33" s="3">
-        <v>4042100</v>
+        <v>3973700</v>
       </c>
       <c r="F33" s="3">
-        <v>3227300</v>
+        <v>3172700</v>
       </c>
       <c r="G33" s="3">
-        <v>2729300</v>
+        <v>2683100</v>
       </c>
       <c r="H33" s="3">
-        <v>2213600</v>
+        <v>2176100</v>
       </c>
       <c r="I33" s="3">
-        <v>1742600</v>
+        <v>1713100</v>
       </c>
       <c r="J33" s="3">
-        <v>1462100</v>
+        <v>1437400</v>
       </c>
       <c r="K33" s="3">
         <v>1282200</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4786400</v>
+        <v>4705300</v>
       </c>
       <c r="E35" s="3">
-        <v>4042100</v>
+        <v>3973700</v>
       </c>
       <c r="F35" s="3">
-        <v>3227300</v>
+        <v>3172700</v>
       </c>
       <c r="G35" s="3">
-        <v>2729300</v>
+        <v>2683100</v>
       </c>
       <c r="H35" s="3">
-        <v>2213600</v>
+        <v>2176100</v>
       </c>
       <c r="I35" s="3">
-        <v>1742600</v>
+        <v>1713100</v>
       </c>
       <c r="J35" s="3">
-        <v>1462100</v>
+        <v>1437400</v>
       </c>
       <c r="K35" s="3">
         <v>1282200</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13913200</v>
+        <v>13677600</v>
       </c>
       <c r="E41" s="3">
-        <v>11540600</v>
+        <v>11345200</v>
       </c>
       <c r="F41" s="3">
-        <v>7588300</v>
+        <v>7459800</v>
       </c>
       <c r="G41" s="3">
-        <v>9112400</v>
+        <v>8958100</v>
       </c>
       <c r="H41" s="3">
-        <v>7119500</v>
+        <v>6998900</v>
       </c>
       <c r="I41" s="3">
-        <v>5340800</v>
+        <v>5250300</v>
       </c>
       <c r="J41" s="3">
-        <v>4683100</v>
+        <v>4603800</v>
       </c>
       <c r="K41" s="3">
         <v>4407300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4625900</v>
+        <v>4547500</v>
       </c>
       <c r="E42" s="3">
-        <v>3348700</v>
+        <v>3292000</v>
       </c>
       <c r="F42" s="3">
-        <v>3100000</v>
+        <v>3047500</v>
       </c>
       <c r="G42" s="3">
-        <v>945000</v>
+        <v>929000</v>
       </c>
       <c r="H42" s="3">
-        <v>8060200</v>
+        <v>7923700</v>
       </c>
       <c r="I42" s="3">
-        <v>620000</v>
+        <v>609500</v>
       </c>
       <c r="J42" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="K42" s="3">
         <v>20600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1703700</v>
+        <v>1674900</v>
       </c>
       <c r="E48" s="3">
-        <v>1458800</v>
+        <v>1434100</v>
       </c>
       <c r="F48" s="3">
-        <v>1352600</v>
+        <v>1329700</v>
       </c>
       <c r="G48" s="3">
-        <v>535500</v>
+        <v>526500</v>
       </c>
       <c r="H48" s="3">
-        <v>483200</v>
+        <v>475000</v>
       </c>
       <c r="I48" s="3">
-        <v>483200</v>
+        <v>475000</v>
       </c>
       <c r="J48" s="3">
-        <v>442400</v>
+        <v>434900</v>
       </c>
       <c r="K48" s="3">
         <v>431000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="E49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="F49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="G49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="H49" s="3">
-        <v>929200</v>
+        <v>913500</v>
       </c>
       <c r="I49" s="3">
-        <v>929300</v>
+        <v>913500</v>
       </c>
       <c r="J49" s="3">
-        <v>929300</v>
+        <v>913600</v>
       </c>
       <c r="K49" s="3">
         <v>968400</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>261810000</v>
+        <v>257376000</v>
       </c>
       <c r="E54" s="3">
-        <v>222949000</v>
+        <v>219174000</v>
       </c>
       <c r="F54" s="3">
-        <v>197927000</v>
+        <v>194575000</v>
       </c>
       <c r="G54" s="3">
-        <v>164673000</v>
+        <v>161884000</v>
       </c>
       <c r="H54" s="3">
-        <v>140955000</v>
+        <v>138568000</v>
       </c>
       <c r="I54" s="3">
-        <v>112431000</v>
+        <v>110527000</v>
       </c>
       <c r="J54" s="3">
-        <v>95935400</v>
+        <v>94310700</v>
       </c>
       <c r="K54" s="3">
         <v>80866500</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2910600</v>
+        <v>2861300</v>
       </c>
       <c r="E57" s="3">
-        <v>2750300</v>
+        <v>2703700</v>
       </c>
       <c r="F57" s="3">
-        <v>2275000</v>
+        <v>2236400</v>
       </c>
       <c r="G57" s="3">
-        <v>2078100</v>
+        <v>2042900</v>
       </c>
       <c r="H57" s="3">
-        <v>2133100</v>
+        <v>2097000</v>
       </c>
       <c r="I57" s="3">
-        <v>1145300</v>
+        <v>1125900</v>
       </c>
       <c r="J57" s="3">
-        <v>959300</v>
+        <v>943100</v>
       </c>
       <c r="K57" s="3">
         <v>768400</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1694600</v>
+        <v>1665900</v>
       </c>
       <c r="E59" s="3">
-        <v>1730100</v>
+        <v>1700800</v>
       </c>
       <c r="F59" s="3">
-        <v>1494400</v>
+        <v>1469100</v>
       </c>
       <c r="G59" s="3">
-        <v>716900</v>
+        <v>704800</v>
       </c>
       <c r="H59" s="3">
-        <v>652800</v>
+        <v>641700</v>
       </c>
       <c r="I59" s="3">
-        <v>418100</v>
+        <v>411000</v>
       </c>
       <c r="J59" s="3">
-        <v>337600</v>
+        <v>331900</v>
       </c>
       <c r="K59" s="3">
         <v>264500</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19273700</v>
+        <v>18947300</v>
       </c>
       <c r="E61" s="3">
-        <v>14567000</v>
+        <v>14320300</v>
       </c>
       <c r="F61" s="3">
-        <v>12728800</v>
+        <v>12513300</v>
       </c>
       <c r="G61" s="3">
-        <v>12952500</v>
+        <v>12733100</v>
       </c>
       <c r="H61" s="3">
-        <v>11568000</v>
+        <v>11372100</v>
       </c>
       <c r="I61" s="3">
-        <v>9063400</v>
+        <v>8909900</v>
       </c>
       <c r="J61" s="3">
-        <v>6476700</v>
+        <v>6367000</v>
       </c>
       <c r="K61" s="3">
         <v>5916500</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>230750000</v>
+        <v>226842000</v>
       </c>
       <c r="E66" s="3">
-        <v>196170000</v>
+        <v>192848000</v>
       </c>
       <c r="F66" s="3">
-        <v>174453000</v>
+        <v>171499000</v>
       </c>
       <c r="G66" s="3">
-        <v>144429000</v>
+        <v>141983000</v>
       </c>
       <c r="H66" s="3">
-        <v>126395000</v>
+        <v>124254000</v>
       </c>
       <c r="I66" s="3">
-        <v>99707500</v>
+        <v>98018900</v>
       </c>
       <c r="J66" s="3">
-        <v>85155900</v>
+        <v>83713800</v>
       </c>
       <c r="K66" s="3">
         <v>71173200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20862600</v>
+        <v>20509300</v>
       </c>
       <c r="E72" s="3">
-        <v>16525600</v>
+        <v>16245700</v>
       </c>
       <c r="F72" s="3">
-        <v>13260300</v>
+        <v>13035700</v>
       </c>
       <c r="G72" s="3">
-        <v>10856900</v>
+        <v>10673000</v>
       </c>
       <c r="H72" s="3">
-        <v>8632900</v>
+        <v>8486700</v>
       </c>
       <c r="I72" s="3">
-        <v>6847000</v>
+        <v>6731000</v>
       </c>
       <c r="J72" s="3">
-        <v>5461900</v>
+        <v>5369400</v>
       </c>
       <c r="K72" s="3">
         <v>4482300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31060000</v>
+        <v>30534000</v>
       </c>
       <c r="E76" s="3">
-        <v>26779400</v>
+        <v>26325900</v>
       </c>
       <c r="F76" s="3">
-        <v>23474200</v>
+        <v>23076700</v>
       </c>
       <c r="G76" s="3">
-        <v>20243900</v>
+        <v>19901100</v>
       </c>
       <c r="H76" s="3">
-        <v>14559600</v>
+        <v>14313100</v>
       </c>
       <c r="I76" s="3">
-        <v>12723100</v>
+        <v>12507600</v>
       </c>
       <c r="J76" s="3">
-        <v>10779400</v>
+        <v>10596900</v>
       </c>
       <c r="K76" s="3">
         <v>9693300</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4786400</v>
+        <v>4705300</v>
       </c>
       <c r="E81" s="3">
-        <v>4042100</v>
+        <v>3973700</v>
       </c>
       <c r="F81" s="3">
-        <v>3227300</v>
+        <v>3172700</v>
       </c>
       <c r="G81" s="3">
-        <v>2729300</v>
+        <v>2683100</v>
       </c>
       <c r="H81" s="3">
-        <v>2213600</v>
+        <v>2176100</v>
       </c>
       <c r="I81" s="3">
-        <v>1742600</v>
+        <v>1713100</v>
       </c>
       <c r="J81" s="3">
-        <v>1462100</v>
+        <v>1437400</v>
       </c>
       <c r="K81" s="3">
         <v>1282200</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208500</v>
+        <v>205000</v>
       </c>
       <c r="E83" s="3">
-        <v>171900</v>
+        <v>169000</v>
       </c>
       <c r="F83" s="3">
-        <v>158700</v>
+        <v>156000</v>
       </c>
       <c r="G83" s="3">
-        <v>151900</v>
+        <v>149300</v>
       </c>
       <c r="H83" s="3">
-        <v>120000</v>
+        <v>118000</v>
       </c>
       <c r="I83" s="3">
-        <v>110100</v>
+        <v>108200</v>
       </c>
       <c r="J83" s="3">
-        <v>92200</v>
+        <v>90600</v>
       </c>
       <c r="K83" s="3">
         <v>92100</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7204600</v>
+        <v>7082600</v>
       </c>
       <c r="E89" s="3">
-        <v>11430000</v>
+        <v>11236500</v>
       </c>
       <c r="F89" s="3">
-        <v>2122600</v>
+        <v>2086700</v>
       </c>
       <c r="G89" s="3">
-        <v>2272600</v>
+        <v>2234100</v>
       </c>
       <c r="H89" s="3">
-        <v>1169000</v>
+        <v>1149200</v>
       </c>
       <c r="I89" s="3">
-        <v>4703000</v>
+        <v>4623300</v>
       </c>
       <c r="J89" s="3">
-        <v>2108900</v>
+        <v>2073200</v>
       </c>
       <c r="K89" s="3">
         <v>1412900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-326400</v>
+        <v>-320900</v>
       </c>
       <c r="E91" s="3">
-        <v>-220800</v>
+        <v>-217100</v>
       </c>
       <c r="F91" s="3">
-        <v>-226800</v>
+        <v>-223000</v>
       </c>
       <c r="G91" s="3">
-        <v>-202800</v>
+        <v>-199400</v>
       </c>
       <c r="H91" s="3">
-        <v>-113900</v>
+        <v>-111900</v>
       </c>
       <c r="I91" s="3">
-        <v>-156600</v>
+        <v>-153900</v>
       </c>
       <c r="J91" s="3">
-        <v>-123800</v>
+        <v>-121700</v>
       </c>
       <c r="K91" s="3">
         <v>-115200</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40948300</v>
+        <v>-40254800</v>
       </c>
       <c r="E94" s="3">
-        <v>-31262300</v>
+        <v>-30732800</v>
       </c>
       <c r="F94" s="3">
-        <v>-26666100</v>
+        <v>-26214500</v>
       </c>
       <c r="G94" s="3">
-        <v>-19058600</v>
+        <v>-18735800</v>
       </c>
       <c r="H94" s="3">
-        <v>-25399200</v>
+        <v>-24969100</v>
       </c>
       <c r="I94" s="3">
-        <v>-19569700</v>
+        <v>-19238300</v>
       </c>
       <c r="J94" s="3">
-        <v>-14196000</v>
+        <v>-13955600</v>
       </c>
       <c r="K94" s="3">
         <v>-15137600</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-449400</v>
+        <v>-441800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-823900</v>
+        <v>-810000</v>
       </c>
       <c r="G96" s="3">
-        <v>-508600</v>
+        <v>-500000</v>
       </c>
       <c r="H96" s="3">
-        <v>-427700</v>
+        <v>-420400</v>
       </c>
       <c r="I96" s="3">
-        <v>-363100</v>
+        <v>-356900</v>
       </c>
       <c r="J96" s="3">
-        <v>-302200</v>
+        <v>-297000</v>
       </c>
       <c r="K96" s="3">
         <v>-249400</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>36110100</v>
+        <v>35498600</v>
       </c>
       <c r="E100" s="3">
-        <v>23787800</v>
+        <v>23384900</v>
       </c>
       <c r="F100" s="3">
-        <v>22887800</v>
+        <v>22500100</v>
       </c>
       <c r="G100" s="3">
-        <v>18817000</v>
+        <v>18498300</v>
       </c>
       <c r="H100" s="3">
-        <v>26003000</v>
+        <v>25562600</v>
       </c>
       <c r="I100" s="3">
-        <v>15549300</v>
+        <v>15286000</v>
       </c>
       <c r="J100" s="3">
-        <v>12498300</v>
+        <v>12286700</v>
       </c>
       <c r="K100" s="3">
         <v>13294000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>131600</v>
+        <v>129300</v>
       </c>
       <c r="G101" s="3">
-        <v>-38100</v>
+        <v>-37400</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-24900</v>
+        <v>-24500</v>
       </c>
       <c r="J101" s="3">
-        <v>42000</v>
+        <v>41300</v>
       </c>
       <c r="K101" s="3">
         <v>46900</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2372600</v>
+        <v>2332400</v>
       </c>
       <c r="E102" s="3">
-        <v>3952300</v>
+        <v>3885400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1524100</v>
+        <v>-1498300</v>
       </c>
       <c r="G102" s="3">
-        <v>1992900</v>
+        <v>1959200</v>
       </c>
       <c r="H102" s="3">
-        <v>1778700</v>
+        <v>1748600</v>
       </c>
       <c r="I102" s="3">
-        <v>657700</v>
+        <v>646500</v>
       </c>
       <c r="J102" s="3">
-        <v>453200</v>
+        <v>445500</v>
       </c>
       <c r="K102" s="3">
         <v>-383900</v>

--- a/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HDB_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16250900</v>
+        <v>16117600</v>
       </c>
       <c r="E8" s="3">
-        <v>15554000</v>
+        <v>15426400</v>
       </c>
       <c r="F8" s="3">
-        <v>14774100</v>
+        <v>14652900</v>
       </c>
       <c r="G8" s="3">
-        <v>12698500</v>
+        <v>12594300</v>
       </c>
       <c r="H8" s="3">
-        <v>10281800</v>
+        <v>10197500</v>
       </c>
       <c r="I8" s="3">
-        <v>8844500</v>
+        <v>8772000</v>
       </c>
       <c r="J8" s="3">
-        <v>7624000</v>
+        <v>7561400</v>
       </c>
       <c r="K8" s="3">
         <v>6470200</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-205000</v>
+        <v>-203300</v>
       </c>
       <c r="E15" s="3">
-        <v>-169000</v>
+        <v>-167600</v>
       </c>
       <c r="F15" s="3">
-        <v>-156000</v>
+        <v>-154800</v>
       </c>
       <c r="G15" s="3">
-        <v>-149300</v>
+        <v>-148100</v>
       </c>
       <c r="H15" s="3">
-        <v>-118000</v>
+        <v>-117000</v>
       </c>
       <c r="I15" s="3">
-        <v>-108200</v>
+        <v>-107400</v>
       </c>
       <c r="J15" s="3">
-        <v>-90600</v>
+        <v>-89900</v>
       </c>
       <c r="K15" s="3">
         <v>-92100</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8670500</v>
+        <v>8599300</v>
       </c>
       <c r="E17" s="3">
-        <v>9100000</v>
+        <v>9025400</v>
       </c>
       <c r="F17" s="3">
-        <v>8972800</v>
+        <v>8899200</v>
       </c>
       <c r="G17" s="3">
-        <v>7393100</v>
+        <v>7332400</v>
       </c>
       <c r="H17" s="3">
-        <v>5847700</v>
+        <v>5799700</v>
       </c>
       <c r="I17" s="3">
-        <v>5018700</v>
+        <v>4977600</v>
       </c>
       <c r="J17" s="3">
-        <v>4322600</v>
+        <v>4287100</v>
       </c>
       <c r="K17" s="3">
         <v>3638400</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7580500</v>
+        <v>7518300</v>
       </c>
       <c r="E18" s="3">
-        <v>6454000</v>
+        <v>6401100</v>
       </c>
       <c r="F18" s="3">
-        <v>5801300</v>
+        <v>5753700</v>
       </c>
       <c r="G18" s="3">
-        <v>5305400</v>
+        <v>5261900</v>
       </c>
       <c r="H18" s="3">
-        <v>4434100</v>
+        <v>4397800</v>
       </c>
       <c r="I18" s="3">
-        <v>3825800</v>
+        <v>3794400</v>
       </c>
       <c r="J18" s="3">
-        <v>3301400</v>
+        <v>3274300</v>
       </c>
       <c r="K18" s="3">
         <v>2831800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1251900</v>
+        <v>-1241600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1092500</v>
+        <v>-1083600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1341600</v>
+        <v>-1330600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1161300</v>
+        <v>-1151800</v>
       </c>
       <c r="H20" s="3">
-        <v>-1056200</v>
+        <v>-1047600</v>
       </c>
       <c r="I20" s="3">
-        <v>-1144400</v>
+        <v>-1135000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1039100</v>
+        <v>-1030600</v>
       </c>
       <c r="K20" s="3">
         <v>-841800</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6533800</v>
+        <v>6480800</v>
       </c>
       <c r="E21" s="3">
-        <v>5530600</v>
+        <v>5485800</v>
       </c>
       <c r="F21" s="3">
-        <v>4615800</v>
+        <v>4578400</v>
       </c>
       <c r="G21" s="3">
-        <v>4293500</v>
+        <v>4258800</v>
       </c>
       <c r="H21" s="3">
-        <v>3496000</v>
+        <v>3467700</v>
       </c>
       <c r="I21" s="3">
-        <v>2789700</v>
+        <v>2767200</v>
       </c>
       <c r="J21" s="3">
-        <v>2353000</v>
+        <v>2334000</v>
       </c>
       <c r="K21" s="3">
         <v>2082100</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6328600</v>
+        <v>6276700</v>
       </c>
       <c r="E23" s="3">
-        <v>5361500</v>
+        <v>5317500</v>
       </c>
       <c r="F23" s="3">
-        <v>4459600</v>
+        <v>4423100</v>
       </c>
       <c r="G23" s="3">
-        <v>4144100</v>
+        <v>4110100</v>
       </c>
       <c r="H23" s="3">
-        <v>3377900</v>
+        <v>3350200</v>
       </c>
       <c r="I23" s="3">
-        <v>2681400</v>
+        <v>2659400</v>
       </c>
       <c r="J23" s="3">
-        <v>2262300</v>
+        <v>2243700</v>
       </c>
       <c r="K23" s="3">
         <v>1990000</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1615900</v>
+        <v>1602600</v>
       </c>
       <c r="E24" s="3">
-        <v>1387500</v>
+        <v>1376100</v>
       </c>
       <c r="F24" s="3">
-        <v>1285800</v>
+        <v>1275300</v>
       </c>
       <c r="G24" s="3">
-        <v>1455400</v>
+        <v>1443500</v>
       </c>
       <c r="H24" s="3">
-        <v>1197900</v>
+        <v>1188100</v>
       </c>
       <c r="I24" s="3">
-        <v>965800</v>
+        <v>957800</v>
       </c>
       <c r="J24" s="3">
-        <v>823300</v>
+        <v>816500</v>
       </c>
       <c r="K24" s="3">
         <v>704400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4712700</v>
+        <v>4674000</v>
       </c>
       <c r="E26" s="3">
-        <v>3974000</v>
+        <v>3941400</v>
       </c>
       <c r="F26" s="3">
-        <v>3173800</v>
+        <v>3147800</v>
       </c>
       <c r="G26" s="3">
-        <v>2688700</v>
+        <v>2666600</v>
       </c>
       <c r="H26" s="3">
-        <v>2180000</v>
+        <v>2162100</v>
       </c>
       <c r="I26" s="3">
-        <v>1715600</v>
+        <v>1701600</v>
       </c>
       <c r="J26" s="3">
-        <v>1439000</v>
+        <v>1427200</v>
       </c>
       <c r="K26" s="3">
         <v>1285600</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4705300</v>
+        <v>4666700</v>
       </c>
       <c r="E27" s="3">
-        <v>3973700</v>
+        <v>3941100</v>
       </c>
       <c r="F27" s="3">
-        <v>3172700</v>
+        <v>3146700</v>
       </c>
       <c r="G27" s="3">
-        <v>2683100</v>
+        <v>2661100</v>
       </c>
       <c r="H27" s="3">
-        <v>2176100</v>
+        <v>2158200</v>
       </c>
       <c r="I27" s="3">
-        <v>1713100</v>
+        <v>1699000</v>
       </c>
       <c r="J27" s="3">
-        <v>1437400</v>
+        <v>1425600</v>
       </c>
       <c r="K27" s="3">
         <v>1282200</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1251900</v>
+        <v>1241600</v>
       </c>
       <c r="E32" s="3">
-        <v>1092500</v>
+        <v>1083600</v>
       </c>
       <c r="F32" s="3">
-        <v>1341600</v>
+        <v>1330600</v>
       </c>
       <c r="G32" s="3">
-        <v>1161300</v>
+        <v>1151800</v>
       </c>
       <c r="H32" s="3">
-        <v>1056200</v>
+        <v>1047600</v>
       </c>
       <c r="I32" s="3">
-        <v>1144400</v>
+        <v>1135000</v>
       </c>
       <c r="J32" s="3">
-        <v>1039100</v>
+        <v>1030600</v>
       </c>
       <c r="K32" s="3">
         <v>841800</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4705300</v>
+        <v>4666700</v>
       </c>
       <c r="E33" s="3">
-        <v>3973700</v>
+        <v>3941100</v>
       </c>
       <c r="F33" s="3">
-        <v>3172700</v>
+        <v>3146700</v>
       </c>
       <c r="G33" s="3">
-        <v>2683100</v>
+        <v>2661100</v>
       </c>
       <c r="H33" s="3">
-        <v>2176100</v>
+        <v>2158200</v>
       </c>
       <c r="I33" s="3">
-        <v>1713100</v>
+        <v>1699000</v>
       </c>
       <c r="J33" s="3">
-        <v>1437400</v>
+        <v>1425600</v>
       </c>
       <c r="K33" s="3">
         <v>1282200</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4705300</v>
+        <v>4666700</v>
       </c>
       <c r="E35" s="3">
-        <v>3973700</v>
+        <v>3941100</v>
       </c>
       <c r="F35" s="3">
-        <v>3172700</v>
+        <v>3146700</v>
       </c>
       <c r="G35" s="3">
-        <v>2683100</v>
+        <v>2661100</v>
       </c>
       <c r="H35" s="3">
-        <v>2176100</v>
+        <v>2158200</v>
       </c>
       <c r="I35" s="3">
-        <v>1713100</v>
+        <v>1699000</v>
       </c>
       <c r="J35" s="3">
-        <v>1437400</v>
+        <v>1425600</v>
       </c>
       <c r="K35" s="3">
         <v>1282200</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13677600</v>
+        <v>13565400</v>
       </c>
       <c r="E41" s="3">
-        <v>11345200</v>
+        <v>11252100</v>
       </c>
       <c r="F41" s="3">
-        <v>7459800</v>
+        <v>7398600</v>
       </c>
       <c r="G41" s="3">
-        <v>8958100</v>
+        <v>8884600</v>
       </c>
       <c r="H41" s="3">
-        <v>6998900</v>
+        <v>6941500</v>
       </c>
       <c r="I41" s="3">
-        <v>5250300</v>
+        <v>5207300</v>
       </c>
       <c r="J41" s="3">
-        <v>4603800</v>
+        <v>4566100</v>
       </c>
       <c r="K41" s="3">
         <v>4407300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4547500</v>
+        <v>4510200</v>
       </c>
       <c r="E42" s="3">
-        <v>3292000</v>
+        <v>3265000</v>
       </c>
       <c r="F42" s="3">
-        <v>3047500</v>
+        <v>3022500</v>
       </c>
       <c r="G42" s="3">
-        <v>929000</v>
+        <v>921400</v>
       </c>
       <c r="H42" s="3">
-        <v>7923700</v>
+        <v>7858700</v>
       </c>
       <c r="I42" s="3">
-        <v>609500</v>
+        <v>604500</v>
       </c>
       <c r="J42" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="K42" s="3">
         <v>20600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1674900</v>
+        <v>1661100</v>
       </c>
       <c r="E48" s="3">
-        <v>1434100</v>
+        <v>1422300</v>
       </c>
       <c r="F48" s="3">
-        <v>1329700</v>
+        <v>1318800</v>
       </c>
       <c r="G48" s="3">
-        <v>526500</v>
+        <v>522100</v>
       </c>
       <c r="H48" s="3">
-        <v>475000</v>
+        <v>471100</v>
       </c>
       <c r="I48" s="3">
-        <v>475000</v>
+        <v>471100</v>
       </c>
       <c r="J48" s="3">
-        <v>434900</v>
+        <v>431400</v>
       </c>
       <c r="K48" s="3">
         <v>431000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="E49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="F49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="G49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="H49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="I49" s="3">
-        <v>913500</v>
+        <v>906000</v>
       </c>
       <c r="J49" s="3">
-        <v>913600</v>
+        <v>906100</v>
       </c>
       <c r="K49" s="3">
         <v>968400</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>257376000</v>
+        <v>255265000</v>
       </c>
       <c r="E54" s="3">
-        <v>219174000</v>
+        <v>217376000</v>
       </c>
       <c r="F54" s="3">
-        <v>194575000</v>
+        <v>192979000</v>
       </c>
       <c r="G54" s="3">
-        <v>161884000</v>
+        <v>160556000</v>
       </c>
       <c r="H54" s="3">
-        <v>138568000</v>
+        <v>137431000</v>
       </c>
       <c r="I54" s="3">
-        <v>110527000</v>
+        <v>109620000</v>
       </c>
       <c r="J54" s="3">
-        <v>94310700</v>
+        <v>93537000</v>
       </c>
       <c r="K54" s="3">
         <v>80866500</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2861300</v>
+        <v>2837800</v>
       </c>
       <c r="E57" s="3">
-        <v>2703700</v>
+        <v>2681500</v>
       </c>
       <c r="F57" s="3">
-        <v>2236400</v>
+        <v>2218100</v>
       </c>
       <c r="G57" s="3">
-        <v>2042900</v>
+        <v>2026100</v>
       </c>
       <c r="H57" s="3">
-        <v>2097000</v>
+        <v>2079800</v>
       </c>
       <c r="I57" s="3">
-        <v>1125900</v>
+        <v>1116600</v>
       </c>
       <c r="J57" s="3">
-        <v>943100</v>
+        <v>935400</v>
       </c>
       <c r="K57" s="3">
         <v>768400</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1665900</v>
+        <v>1652200</v>
       </c>
       <c r="E59" s="3">
-        <v>1700800</v>
+        <v>1686900</v>
       </c>
       <c r="F59" s="3">
-        <v>1469100</v>
+        <v>1457000</v>
       </c>
       <c r="G59" s="3">
-        <v>704800</v>
+        <v>699000</v>
       </c>
       <c r="H59" s="3">
-        <v>641700</v>
+        <v>636500</v>
       </c>
       <c r="I59" s="3">
-        <v>411000</v>
+        <v>407600</v>
       </c>
       <c r="J59" s="3">
-        <v>331900</v>
+        <v>329100</v>
       </c>
       <c r="K59" s="3">
         <v>264500</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18947300</v>
+        <v>18791900</v>
       </c>
       <c r="E61" s="3">
-        <v>14320300</v>
+        <v>14202800</v>
       </c>
       <c r="F61" s="3">
-        <v>12513300</v>
+        <v>12410600</v>
       </c>
       <c r="G61" s="3">
-        <v>12733100</v>
+        <v>12628600</v>
       </c>
       <c r="H61" s="3">
-        <v>11372100</v>
+        <v>11278800</v>
       </c>
       <c r="I61" s="3">
-        <v>8909900</v>
+        <v>8836800</v>
       </c>
       <c r="J61" s="3">
-        <v>6367000</v>
+        <v>6314800</v>
       </c>
       <c r="K61" s="3">
         <v>5916500</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>226842000</v>
+        <v>224981000</v>
       </c>
       <c r="E66" s="3">
-        <v>192848000</v>
+        <v>191266000</v>
       </c>
       <c r="F66" s="3">
-        <v>171499000</v>
+        <v>170092000</v>
       </c>
       <c r="G66" s="3">
-        <v>141983000</v>
+        <v>140818000</v>
       </c>
       <c r="H66" s="3">
-        <v>124254000</v>
+        <v>123235000</v>
       </c>
       <c r="I66" s="3">
-        <v>98018900</v>
+        <v>97214800</v>
       </c>
       <c r="J66" s="3">
-        <v>83713800</v>
+        <v>83027000</v>
       </c>
       <c r="K66" s="3">
         <v>71173200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20509300</v>
+        <v>20341100</v>
       </c>
       <c r="E72" s="3">
-        <v>16245700</v>
+        <v>16112500</v>
       </c>
       <c r="F72" s="3">
-        <v>13035700</v>
+        <v>12928800</v>
       </c>
       <c r="G72" s="3">
-        <v>10673000</v>
+        <v>10585500</v>
       </c>
       <c r="H72" s="3">
-        <v>8486700</v>
+        <v>8417100</v>
       </c>
       <c r="I72" s="3">
-        <v>6731000</v>
+        <v>6675800</v>
       </c>
       <c r="J72" s="3">
-        <v>5369400</v>
+        <v>5325300</v>
       </c>
       <c r="K72" s="3">
         <v>4482300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30534000</v>
+        <v>30283500</v>
       </c>
       <c r="E76" s="3">
-        <v>26325900</v>
+        <v>26109900</v>
       </c>
       <c r="F76" s="3">
-        <v>23076700</v>
+        <v>22887400</v>
       </c>
       <c r="G76" s="3">
-        <v>19901100</v>
+        <v>19737800</v>
       </c>
       <c r="H76" s="3">
-        <v>14313100</v>
+        <v>14195600</v>
       </c>
       <c r="I76" s="3">
-        <v>12507600</v>
+        <v>12405000</v>
       </c>
       <c r="J76" s="3">
-        <v>10596900</v>
+        <v>10510000</v>
       </c>
       <c r="K76" s="3">
         <v>9693300</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4705300</v>
+        <v>4666700</v>
       </c>
       <c r="E81" s="3">
-        <v>3973700</v>
+        <v>3941100</v>
       </c>
       <c r="F81" s="3">
-        <v>3172700</v>
+        <v>3146700</v>
       </c>
       <c r="G81" s="3">
-        <v>2683100</v>
+        <v>2661100</v>
       </c>
       <c r="H81" s="3">
-        <v>2176100</v>
+        <v>2158200</v>
       </c>
       <c r="I81" s="3">
-        <v>1713100</v>
+        <v>1699000</v>
       </c>
       <c r="J81" s="3">
-        <v>1437400</v>
+        <v>1425600</v>
       </c>
       <c r="K81" s="3">
         <v>1282200</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205000</v>
+        <v>203300</v>
       </c>
       <c r="E83" s="3">
-        <v>169000</v>
+        <v>167600</v>
       </c>
       <c r="F83" s="3">
-        <v>156000</v>
+        <v>154800</v>
       </c>
       <c r="G83" s="3">
-        <v>149300</v>
+        <v>148100</v>
       </c>
       <c r="H83" s="3">
-        <v>118000</v>
+        <v>117000</v>
       </c>
       <c r="I83" s="3">
-        <v>108200</v>
+        <v>107400</v>
       </c>
       <c r="J83" s="3">
-        <v>90600</v>
+        <v>89900</v>
       </c>
       <c r="K83" s="3">
         <v>92100</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7082600</v>
+        <v>7024500</v>
       </c>
       <c r="E89" s="3">
-        <v>11236500</v>
+        <v>11144300</v>
       </c>
       <c r="F89" s="3">
-        <v>2086700</v>
+        <v>2069600</v>
       </c>
       <c r="G89" s="3">
-        <v>2234100</v>
+        <v>2215800</v>
       </c>
       <c r="H89" s="3">
-        <v>1149200</v>
+        <v>1139800</v>
       </c>
       <c r="I89" s="3">
-        <v>4623300</v>
+        <v>4585400</v>
       </c>
       <c r="J89" s="3">
-        <v>2073200</v>
+        <v>2056200</v>
       </c>
       <c r="K89" s="3">
         <v>1412900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-320900</v>
+        <v>-318300</v>
       </c>
       <c r="E91" s="3">
-        <v>-217100</v>
+        <v>-215300</v>
       </c>
       <c r="F91" s="3">
-        <v>-223000</v>
+        <v>-221200</v>
       </c>
       <c r="G91" s="3">
-        <v>-199400</v>
+        <v>-197700</v>
       </c>
       <c r="H91" s="3">
-        <v>-111900</v>
+        <v>-111000</v>
       </c>
       <c r="I91" s="3">
-        <v>-153900</v>
+        <v>-152700</v>
       </c>
       <c r="J91" s="3">
-        <v>-121700</v>
+        <v>-120700</v>
       </c>
       <c r="K91" s="3">
         <v>-115200</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40254800</v>
+        <v>-39924600</v>
       </c>
       <c r="E94" s="3">
-        <v>-30732800</v>
+        <v>-30480700</v>
       </c>
       <c r="F94" s="3">
-        <v>-26214500</v>
+        <v>-25999400</v>
       </c>
       <c r="G94" s="3">
-        <v>-18735800</v>
+        <v>-18582100</v>
       </c>
       <c r="H94" s="3">
-        <v>-24969100</v>
+        <v>-24764300</v>
       </c>
       <c r="I94" s="3">
-        <v>-19238300</v>
+        <v>-19080500</v>
       </c>
       <c r="J94" s="3">
-        <v>-13955600</v>
+        <v>-13841100</v>
       </c>
       <c r="K94" s="3">
         <v>-15137600</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-441800</v>
+        <v>-438100</v>
       </c>
       <c r="E96" s="3">
         <v>-2000</v>
       </c>
       <c r="F96" s="3">
-        <v>-810000</v>
+        <v>-803300</v>
       </c>
       <c r="G96" s="3">
-        <v>-500000</v>
+        <v>-495900</v>
       </c>
       <c r="H96" s="3">
-        <v>-420400</v>
+        <v>-417000</v>
       </c>
       <c r="I96" s="3">
-        <v>-356900</v>
+        <v>-354000</v>
       </c>
       <c r="J96" s="3">
-        <v>-297000</v>
+        <v>-294600</v>
       </c>
       <c r="K96" s="3">
         <v>-249400</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35498600</v>
+        <v>35207400</v>
       </c>
       <c r="E100" s="3">
-        <v>23384900</v>
+        <v>23193100</v>
       </c>
       <c r="F100" s="3">
-        <v>22500100</v>
+        <v>22315600</v>
       </c>
       <c r="G100" s="3">
-        <v>18498300</v>
+        <v>18346600</v>
       </c>
       <c r="H100" s="3">
-        <v>25562600</v>
+        <v>25352900</v>
       </c>
       <c r="I100" s="3">
-        <v>15286000</v>
+        <v>15160600</v>
       </c>
       <c r="J100" s="3">
-        <v>12286700</v>
+        <v>12185900</v>
       </c>
       <c r="K100" s="3">
         <v>13294000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E101" s="3">
         <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>129300</v>
+        <v>128300</v>
       </c>
       <c r="G101" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="H101" s="3">
         <v>5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-24500</v>
+        <v>-24300</v>
       </c>
       <c r="J101" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="K101" s="3">
         <v>46900</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2332400</v>
+        <v>2313300</v>
       </c>
       <c r="E102" s="3">
-        <v>3885400</v>
+        <v>3853500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1498300</v>
+        <v>-1486000</v>
       </c>
       <c r="G102" s="3">
-        <v>1959200</v>
+        <v>1943100</v>
       </c>
       <c r="H102" s="3">
-        <v>1748600</v>
+        <v>1734200</v>
       </c>
       <c r="I102" s="3">
-        <v>646500</v>
+        <v>641200</v>
       </c>
       <c r="J102" s="3">
-        <v>445500</v>
+        <v>441900</v>
       </c>
       <c r="K102" s="3">
         <v>-383900</v>
